--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P02_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P02_trail0 Features.xlsx
@@ -7402,7 +7402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7413,29 +7413,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7456,115 +7454,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -7581,72 +7569,66 @@
         <v>6.068026529492753e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-3.868719170133671</v>
+        <v>4.222882248201097e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>16.04021260844712</v>
+        <v>6.298355431930851e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4.222882248201097e-07</v>
+        <v>0.1057557055100124</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.298355431930851e-07</v>
+        <v>0.3481622960464927</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1057557055100124</v>
+        <v>0.1320810204371148</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3481622960464927</v>
+        <v>1.931667980678022</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1320810204371148</v>
+        <v>3.240971855666299</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.95123505563294</v>
+        <v>7.612998645842129</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.240971855666299</v>
+        <v>6.249168648059919e-19</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>7.612998645842129</v>
+        <v>74834947460.43124</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>6.249168648059919e-19</v>
+        <v>1.609591020127918e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>74834947460.43124</v>
+        <v>3499.702771398582</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.609591020127918e-09</v>
+        <v>3.805408459387461e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>3499.702771398582</v>
+        <v>6.70422959958707</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>3.805408459387461e-05</v>
+        <v>1.66618246890901</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>6.70422959958707</v>
+        <v>0.001710405315630552</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.66618246890901</v>
+        <v>6.44736660410649</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.001710405315630552</v>
+        <v>0.9604506026786432</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>6.44736660410649</v>
+        <v>0.9394689769088429</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9604506026786432</v>
+        <v>261</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.9394689769088429</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>261</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>8.697091642457629</v>
       </c>
     </row>
@@ -7661,72 +7643,66 @@
         <v>4.320516819146189e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-3.724128301919202</v>
+        <v>3.054449390157145e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>15.50864228356033</v>
+        <v>6.352151231116626e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.054449390157145e-07</v>
+        <v>0.1031889482084672</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.352151231116626e-07</v>
+        <v>0.3568258129980047</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.1031889482084672</v>
+        <v>0.1376308444674591</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3568258129980047</v>
+        <v>1.92837552184621</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1376308444674591</v>
+        <v>3.256975805131851</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.95167596939878</v>
+        <v>7.431412123516275</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.256975805131851</v>
+        <v>6.558296649466972e-19</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>7.431412123516275</v>
+        <v>71226549923.8322</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>6.558296649466972e-19</v>
+        <v>1.69524767657485e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>71226549923.8322</v>
+        <v>3327.169100178238</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.69524767657485e-09</v>
+        <v>4.470740573289425e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>3327.169100178238</v>
+        <v>6.477794332391566</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>4.470740573289425e-05</v>
+        <v>1.461578217066672</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>6.477794332391566</v>
+        <v>0.001876004085776892</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.461578217066672</v>
+        <v>6.064265914184897</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.001876004085776892</v>
+        <v>0.9601856424762195</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>6.064265914184897</v>
+        <v>0.9175740983454257</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9601856424762195</v>
+        <v>257</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.9175740983454257</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>257</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>7.866025336646572</v>
       </c>
     </row>
@@ -7741,72 +7717,66 @@
         <v>3.092670106894775e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-3.352891331562719</v>
+        <v>2.203534391128452e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>13.75812577533626</v>
+        <v>6.389171152239581e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.203534391128452e-07</v>
+        <v>0.09801235808302723</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.389171152239581e-07</v>
+        <v>0.3634961426518902</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.09801235808302723</v>
+        <v>0.1413827153867803</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3634961426518902</v>
+        <v>1.935458016099974</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1413827153867803</v>
+        <v>3.449803695273026</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.95343544133905</v>
+        <v>7.555100601864147</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.449803695273026</v>
+        <v>7.212088666630304e-19</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>7.555100601864147</v>
+        <v>68908801072.90639</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.212088666630304e-19</v>
+        <v>1.758529929052362e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>68908801072.90639</v>
+        <v>3424.604673123716</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.758529929052362e-09</v>
+        <v>5.77016648706812e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>3424.604673123716</v>
+        <v>6.707662604603488</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>5.77016648706812e-05</v>
+        <v>1.3402466753858</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>6.707662604603488</v>
+        <v>0.002596155867601938</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.3402466753858</v>
+        <v>5.556335915782295</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.002596155867601938</v>
+        <v>0.9608109894346679</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>5.556335915782295</v>
+        <v>0.911175000890033</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9608109894346679</v>
+        <v>255</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.911175000890033</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>255</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>6.30331692897556</v>
       </c>
     </row>
@@ -7821,72 +7791,66 @@
         <v>2.264152058699312e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-2.601488544899881</v>
+        <v>1.585393153631339e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>9.991558026922187</v>
+        <v>6.413987573727836e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.585393153631339e-07</v>
+        <v>0.08809560122699085</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.413987573727836e-07</v>
+        <v>0.3620643460721482</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.08809560122699085</v>
+        <v>0.1385041834371543</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3620643460721482</v>
+        <v>1.93717106580687</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1385041834371543</v>
+        <v>3.536400815646955</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.956135963520436</v>
+        <v>7.415522804079869</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.536400815646955</v>
+        <v>7.530527190093421e-19</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>7.415522804079869</v>
+        <v>66429720245.11024</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>7.530527190093421e-19</v>
+        <v>1.822538433923766e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>66429720245.11024</v>
+        <v>3323.152166202178</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.822538433923766e-09</v>
+        <v>6.511689645130517e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>3323.152166202178</v>
+        <v>7.288197192993439</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>6.511689645130517e-05</v>
+        <v>1.256519035922171</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.288197192993439</v>
+        <v>0.003458867475520377</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.256519035922171</v>
+        <v>5.321832678582724</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.003458867475520377</v>
+        <v>0.9612196465462931</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>5.321832678582724</v>
+        <v>0.9368026217784849</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9612196465462931</v>
+        <v>227</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.9368026217784849</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>227</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>5.704465284001161</v>
       </c>
     </row>
@@ -7901,72 +7865,66 @@
         <v>1.747685067966228e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-1.486006491760617</v>
+        <v>1.137552008099059e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>4.626603729572082</v>
+        <v>6.429945238941872e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.137552008099059e-07</v>
+        <v>0.07110280452785503</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.429945238941872e-07</v>
+        <v>0.3425136471161771</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.07110280452785503</v>
+        <v>0.1220665140279971</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3425136471161771</v>
+        <v>1.937270472798518</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1220665140279971</v>
+        <v>3.477232424920131</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.956616387429556</v>
+        <v>7.442633468096757</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.477232424920131</v>
+        <v>7.475765455708858e-19</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>7.442633468096757</v>
+        <v>66140407929.62883</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>7.475765455708858e-19</v>
+        <v>1.829460130231783e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>66140407929.62883</v>
+        <v>3270.313639620241</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.829460130231783e-09</v>
+        <v>6.545104193608008e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>3270.313639620241</v>
+        <v>8.226705426191488</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>6.545104193608008e-05</v>
+        <v>1.315172705154258</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.226705426191488</v>
+        <v>0.004429640264843352</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.315172705154258</v>
+        <v>5.427639177804238</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.004429640264843352</v>
+        <v>0.9601231104605809</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>5.427639177804238</v>
+        <v>0.9331087444898774</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9601231104605809</v>
+        <v>238</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.9331087444898774</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>238</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>6.199183955470541</v>
       </c>
     </row>
@@ -7981,72 +7939,66 @@
         <v>1.468389051184836e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.4543058016910671</v>
+        <v>8.142914668043706e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.3723199936465882</v>
+        <v>6.439486804954032e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>8.142914668043706e-08</v>
+        <v>0.04761427475168333</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.439486804954032e-07</v>
+        <v>0.29897735110229</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.04761427475168333</v>
+        <v>0.09143007923975126</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.29897735110229</v>
+        <v>1.940201034748977</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.09143007923975126</v>
+        <v>3.192026100958796</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.960753061440418</v>
+        <v>7.318150163438574</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.192026100958796</v>
+        <v>7.732257298212332e-19</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>7.318150163438574</v>
+        <v>64170458212.02496</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>7.732257298212332e-19</v>
+        <v>1.888030868394622e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>64170458212.02496</v>
+        <v>3184.025798646979</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.888030868394622e-09</v>
+        <v>6.308985221512572e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>3184.025798646979</v>
+        <v>8.653919012031114</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>6.308985221512572e-05</v>
+        <v>1.399868478456364</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.653919012031114</v>
+        <v>0.004724818859436328</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.399868478456364</v>
+        <v>5.644683004128821</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.004724818859436328</v>
+        <v>0.9590262039026213</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>5.644683004128821</v>
+        <v>0.9365134575352585</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9590262039026213</v>
+        <v>234</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.9365134575352585</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>234</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>6.789619076525071</v>
       </c>
     </row>
@@ -8061,72 +8013,66 @@
         <v>1.349393418275851e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.04820435301489881</v>
+        <v>5.815015296874443e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.168677236791438</v>
+        <v>6.444404262030856e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5.815015296874443e-08</v>
+        <v>0.02289944679296015</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>6.444404262030856e-07</v>
+        <v>0.2404804093232476</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.02289944679296015</v>
+        <v>0.0582176260182812</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2404804093232476</v>
+        <v>1.939902702151842</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.0582176260182812</v>
+        <v>2.953871553045898</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.966545803290623</v>
+        <v>7.097548900006036</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.953871553045898</v>
+        <v>8.220384728398308e-19</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>7.097548900006036</v>
+        <v>58291209521.12148</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>8.220384728398308e-19</v>
+        <v>2.066501009638226e-09</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>58291209521.12148</v>
+        <v>2793.175843831848</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.066501009638226e-09</v>
+        <v>5.056693796138311e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>2793.175843831848</v>
+        <v>7.980820331665785</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>5.056693796138311e-05</v>
+        <v>1.570837168344047</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.980820331665785</v>
+        <v>0.003220784917485587</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.570837168344047</v>
+        <v>5.936592831409687</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.003220784917485587</v>
+        <v>0.957233510405152</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>5.936592831409687</v>
+        <v>0.9486420929024377</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.957233510405152</v>
+        <v>213</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.9486420929024377</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>213</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>7.79567485641709</v>
       </c>
     </row>
@@ -8141,72 +8087,66 @@
         <v>1.319283232549962e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.1483622309835285</v>
+        <v>4.142076068340393e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.358882505099978</v>
+        <v>6.44601000476102e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4.142076068340393e-08</v>
+        <v>0.002238413409781139</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>6.44601000476102e-07</v>
+        <v>0.1842067239043164</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.002238413409781139</v>
+        <v>0.03386266766355171</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1842067239043164</v>
+        <v>1.935637499912605</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.03386266766355171</v>
+        <v>3.49251442154013</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.962543459669171</v>
+        <v>7.533199425451846</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>3.49251442154013</v>
+        <v>7.297095016136037e-19</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>7.533199425451846</v>
+        <v>63670020401.68344</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>7.297095016136037e-19</v>
+        <v>1.89604644274251e-09</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>63670020401.68344</v>
+        <v>2958.148550375261</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.89604644274251e-09</v>
+        <v>5.286365568346407e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>2958.148550375261</v>
+        <v>6.60497970175546</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>5.286365568346407e-05</v>
+        <v>1.643611013819631</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>6.60497970175546</v>
+        <v>0.002306216989609366</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.643611013819631</v>
+        <v>5.823975304389672</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.002306216989609366</v>
+        <v>0.9591878005840522</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>5.823975304389672</v>
+        <v>0.9925846410247617</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9591878005840522</v>
+        <v>228</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.9925846410247617</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>7.087417859597019</v>
       </c>
     </row>
@@ -8221,72 +8161,66 @@
         <v>1.328141452513163e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.1391860038411504</v>
+        <v>3.973712224665102e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.36133302115118</v>
+        <v>6.445233464717565e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.973712224665102e-08</v>
+        <v>-0.01297351024148053</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>6.445233464717565e-07</v>
+        <v>0.1393328210243067</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.01297351024148053</v>
+        <v>0.01954342529126176</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1393328210243067</v>
+        <v>1.938030560958754</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01954342529126176</v>
+        <v>3.232589970962059</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.959914748873868</v>
+        <v>7.690510553397894</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>3.232589970962059</v>
+        <v>7.001620790489817e-19</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>7.690510553397894</v>
+        <v>66580591799.9464</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>7.001620790489817e-19</v>
+        <v>1.816642199399299e-09</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>66580591799.9464</v>
+        <v>3103.801135507056</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.816642199399299e-09</v>
+        <v>6.108765971139132e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>3103.801135507056</v>
+        <v>6.876663358735388</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>6.108765971139132e-05</v>
+        <v>1.679843712233805</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>6.876663358735388</v>
+        <v>0.002888743732081836</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.679843712233805</v>
+        <v>5.539784884981097</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.002888743732081836</v>
+        <v>0.9607640384870861</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>5.539784884981097</v>
+        <v>0.9809505438940097</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9607640384870861</v>
+        <v>216</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.9809505438940097</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>216</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>6.2231846714705</v>
       </c>
     </row>
@@ -8301,72 +8235,66 @@
         <v>1.34864391192014e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.1439028432370562</v>
+        <v>3.973712224665102e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.387299767506109</v>
+        <v>6.442737081521866e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.973712224665102e-08</v>
+        <v>-0.02358675717688608</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>6.442737081521866e-07</v>
+        <v>0.1062733915970198</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.02358675717688608</v>
+        <v>0.01183038415968333</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1062733915970198</v>
+        <v>1.934744367382957</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01183038415968333</v>
+        <v>3.139221103360705</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.957751641343153</v>
+        <v>7.226811548606559</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>3.139221103360705</v>
+        <v>7.928946193397187e-19</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>7.226811548606559</v>
+        <v>58787598278.46558</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>7.928946193397187e-19</v>
+        <v>2.057041272503261e-09</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>58787598278.46558</v>
+        <v>2740.229303466086</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.057041272503261e-09</v>
+        <v>6.367234402724313e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>2740.229303466086</v>
+        <v>7.246163493176484</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>6.367234402724313e-05</v>
+        <v>1.473379995183234</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.246163493176484</v>
+        <v>0.003343236469067702</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.473379995183234</v>
+        <v>5.371806925295129</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.003343236469067702</v>
+        <v>0.9624473573211079</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>5.371806925295129</v>
+        <v>1.037348356271297</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9624473573211079</v>
+        <v>219</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.037348356271297</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>219</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>6.040029006216233</v>
       </c>
     </row>
@@ -8381,72 +8309,66 @@
         <v>1.368153808358705e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.1777214882084352</v>
+        <v>3.979883897158252e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.405852317398198</v>
+        <v>6.438978253080647e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.979883897158252e-08</v>
+        <v>-0.03130322730207943</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>6.438978253080647e-07</v>
+        <v>0.0821147410051899</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.03130322730207943</v>
+        <v>0.00771183540214522</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.0821147410051899</v>
+        <v>1.932531977181539</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.00771183540214522</v>
+        <v>3.347491821919957</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.954861501255696</v>
+        <v>5.569311956562699</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>3.347491821919957</v>
+        <v>1.369638946641193e-18</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>5.569311956562699</v>
+        <v>34193512718.30783</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.369638946641193e-18</v>
+        <v>3.539744709984992e-09</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>34193512718.30783</v>
+        <v>1601.376805207841</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>3.539744709984992e-09</v>
+        <v>5.563339312606886e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>1601.376805207841</v>
+        <v>6.247329390704907</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>5.563339312606886e-05</v>
+        <v>1.423028477749433</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>6.247329390704907</v>
+        <v>0.002171322627562992</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.423028477749433</v>
+        <v>5.457941155782572</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.002171322627562992</v>
+        <v>0.9628124399486286</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>5.457941155782572</v>
+        <v>1.105329430724844</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9628124399486286</v>
+        <v>211</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.105329430724844</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>211</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>5.72559691992843</v>
       </c>
     </row>
@@ -8461,72 +8383,66 @@
         <v>1.381731813965647e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.2292035619707516</v>
+        <v>4.010447239131532e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.395615638388813</v>
+        <v>6.434236899850071e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>4.010447239131532e-08</v>
+        <v>-0.03736035877116757</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>6.434236899850071e-07</v>
+        <v>0.06336890299367301</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.03736035877116757</v>
+        <v>0.005405029819861202</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.06336890299367301</v>
+        <v>1.926488396867273</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.005405029819861202</v>
+        <v>3.167745497559355</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.949815347504888</v>
+        <v>5.174719668619622</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>3.167745497559355</v>
+        <v>1.586483397442117e-18</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.174719668619622</v>
+        <v>29457434349.32692</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.586483397442117e-18</v>
+        <v>4.106874943523199e-09</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>29457434349.32692</v>
+        <v>1376.655798881987</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.106874943523199e-09</v>
+        <v>5.336963724604816e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>1376.655798881987</v>
+        <v>7.411024851706813</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>5.336963724604816e-05</v>
+        <v>1.724335296996115</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.411024851706813</v>
+        <v>0.002931236029108854</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.724335296996115</v>
+        <v>5.390515962622015</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.002931236029108854</v>
+        <v>0.9639291801045307</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>5.390515962622015</v>
+        <v>1.072473524108134</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9639291801045307</v>
+        <v>197</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.072473524108134</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>197</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>5.318684121516449</v>
       </c>
     </row>
@@ -8541,72 +8457,66 @@
         <v>1.387481846454154e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.2867981659768954</v>
+        <v>4.053885617023869e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.357730342927149</v>
+        <v>6.428703702628429e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>4.053885617023869e-08</v>
+        <v>-0.04230185094544053</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>6.428703702628429e-07</v>
+        <v>0.04825098078953608</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.04230185094544053</v>
+        <v>0.004114259487441878</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.04825098078953608</v>
+        <v>1.924680860803486</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.004114259487441878</v>
+        <v>3.254195241330117</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.951188161072213</v>
+        <v>5.072390696147934</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>3.254195241330117</v>
+        <v>1.651139595571449e-18</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.072390696147934</v>
+        <v>28778869240.82565</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.651139595571449e-18</v>
+        <v>4.199595130214043e-09</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>28778869240.82565</v>
+        <v>1367.512309009586</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.199595130214043e-09</v>
+        <v>6.117811658846897e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>1367.512309009586</v>
+        <v>8.927474002678608</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>6.117811658846897e-05</v>
+        <v>1.568692114549556</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.927474002678608</v>
+        <v>0.004875883171243574</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.568692114549556</v>
+        <v>5.02318946882451</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.004875883171243574</v>
+        <v>0.9638198003293763</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>5.02318946882451</v>
+        <v>1.082362562279399</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9638198003293763</v>
+        <v>201</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.082362562279399</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>201</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>4.30348787843931</v>
       </c>
     </row>
@@ -8621,72 +8531,66 @@
         <v>1.385228274188191e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.3424294911756411</v>
+        <v>4.107733095517708e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.302927243804996</v>
+        <v>6.422549854356469e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>4.107733095517708e-08</v>
+        <v>-0.04625491754118324</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>6.422549854356469e-07</v>
+        <v>0.03715517498801914</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.04625491754118324</v>
+        <v>0.003518591249823191</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.03715517498801914</v>
+        <v>1.924309725986188</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.003518591249823191</v>
+        <v>3.217016438097756</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.952268485752</v>
+        <v>5.036000225989015</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>3.217016438097756</v>
+        <v>1.67508829901047e-18</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.036000225989015</v>
+        <v>30019804689.26348</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.67508829901047e-18</v>
+        <v>4.035927858548854e-09</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>30019804689.26348</v>
+        <v>1509.57060231718</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.035927858548854e-09</v>
+        <v>6.358904805980901e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>1509.57060231718</v>
+        <v>8.112550501524291</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>6.358904805980901e-05</v>
+        <v>1.552120797470758</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.112550501524291</v>
+        <v>0.00418501626544117</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.552120797470758</v>
+        <v>4.712683371579178</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.00418501626544117</v>
+        <v>0.9628883321925813</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>4.712683371579178</v>
+        <v>1.038177958325267</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9628883321925813</v>
+        <v>203</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.038177958325267</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>203</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>3.512323348878533</v>
       </c>
     </row>
@@ -8701,72 +8605,66 @@
         <v>1.375881581915922e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.3917951039763881</v>
+        <v>4.164558872496951e-08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.242449359892648</v>
+        <v>6.415939444441593e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>4.164558872496951e-08</v>
+        <v>-0.04929892036708133</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>6.415939444441593e-07</v>
+        <v>0.03014798342657344</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.04929892036708133</v>
+        <v>0.003338997204772716</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.03014798342657344</v>
+        <v>1.923049820509393</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.003338997204772716</v>
+        <v>3.558814172791871</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.952855680068948</v>
+        <v>5.074212527127877</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>3.558814172791871</v>
+        <v>1.649954167392414e-18</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.074212527127877</v>
+        <v>30394186882.81856</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.649954167392414e-18</v>
+        <v>3.983450048141679e-09</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>30394186882.81856</v>
+        <v>1524.238543376492</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.983450048141679e-09</v>
+        <v>6.633002560579674e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>1524.238543376492</v>
+        <v>6.573406213857417</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>6.633002560579674e-05</v>
+        <v>1.575715266473647</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>6.573406213857417</v>
+        <v>0.002866098467928326</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.575715266473647</v>
+        <v>4.625747343278266</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.002866098467928326</v>
+        <v>0.9627259523747496</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>4.625747343278266</v>
+        <v>1.030438466308455</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9627259523747496</v>
+        <v>225</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.030438466308455</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>225</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>2.968788330004662</v>
       </c>
     </row>
@@ -8781,72 +8679,66 @@
         <v>1.360933152106619e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.4339276328986105</v>
+        <v>4.217595707518913e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.183265591153259</v>
+        <v>6.409032861744222e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>4.217595707518913e-08</v>
+        <v>-0.05146963386981001</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>6.409032861744222e-07</v>
+        <v>0.02696395463871312</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05146963386981001</v>
+        <v>0.00337637466153434</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.02696395463871312</v>
+        <v>1.926561821162093</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.00337637466153434</v>
+        <v>3.207527619449812</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.956561805233373</v>
+        <v>5.100420761264082</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>3.207527619449812</v>
+        <v>1.633041333007913e-18</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.100420761264082</v>
+        <v>29452317297.66383</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.633041333007913e-18</v>
+        <v>4.101151269289899e-09</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>29452317297.66383</v>
+        <v>1416.563731395115</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>4.101151269289899e-09</v>
+        <v>7.141503778275106e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>1416.563731395115</v>
+        <v>6.340003086846147</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>7.141503778275106e-05</v>
+        <v>2.086042746064959</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>6.340003086846147</v>
+        <v>0.002870573087971958</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>2.086042746064959</v>
+        <v>4.73655478277784</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.002870573087971958</v>
+        <v>0.9595317375355993</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>4.73655478277784</v>
+        <v>1.028228014027229</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9595317375355993</v>
+        <v>206</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.028228014027229</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>206</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>2.977953712877366</v>
       </c>
     </row>
@@ -8861,72 +8753,66 @@
         <v>1.341921035362538e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.4700080317512655</v>
+        <v>4.258893684714139e-08</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.127319777803734</v>
+        <v>6.401971371941224e-07</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4.258893684714139e-08</v>
+        <v>-0.05289108535559879</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>6.401971371941224e-07</v>
+        <v>0.02624299724128278</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05289108535559879</v>
+        <v>0.003486469470202879</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.02624299724128278</v>
+        <v>1.926546762865321</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.003486469470202879</v>
+        <v>2.966831959061788</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.955668322210484</v>
+        <v>5.088784553107653</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.966831959061788</v>
+        <v>1.640518220463279e-18</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>5.088784553107653</v>
+        <v>29050747214.17149</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.640518220463279e-18</v>
+        <v>4.150686441222896e-09</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>29050747214.17149</v>
+        <v>1384.508648513156</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>4.150686441222896e-09</v>
+        <v>7.896760859151591e-05</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>1384.508648513156</v>
+        <v>9.177142642039222</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>7.896760859151591e-05</v>
+        <v>1.633406021263828</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.177142642039222</v>
+        <v>0.006650647816006307</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.633406021263828</v>
+        <v>4.808894679201423</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.006650647816006307</v>
+        <v>0.9593273938779353</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>4.808894679201423</v>
+        <v>1.075575576210883</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9593273938779353</v>
+        <v>206</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.075575576210883</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>206</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>3.470575533560351</v>
       </c>
     </row>
@@ -8941,72 +8827,66 @@
         <v>1.320050063721202e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.5020873629927162</v>
+        <v>4.259285453177262e-08</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.073404264535906</v>
+        <v>6.394867922323099e-07</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>4.259285453177262e-08</v>
+        <v>-0.05377395689700643</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>6.394867922323099e-07</v>
+        <v>0.02665303743870472</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.05377395689700643</v>
+        <v>0.003602264361787103</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.02665303743870472</v>
+        <v>1.918784179800358</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.003602264361787103</v>
+        <v>2.863711155823695</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.950823304163834</v>
+        <v>5.229107673548613</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.863711155823695</v>
+        <v>1.553652963216605e-18</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>5.229107673548613</v>
+        <v>28751729443.63059</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.553652963216605e-18</v>
+        <v>4.172573471555194e-09</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>28751729443.63059</v>
+        <v>1284.345781980892</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>4.172573471555194e-09</v>
+        <v>8.617603598367033e-05</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>1284.345781980892</v>
+        <v>11.92099745934872</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>8.617603598367033e-05</v>
+        <v>1.253137701602121</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>11.92099745934872</v>
+        <v>0.0122464920220195</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.253137701602121</v>
+        <v>4.630712734391365</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.0122464920220195</v>
+        <v>0.959316679378843</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>4.630712734391365</v>
+        <v>1.104826823058292</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.959316679378843</v>
+        <v>213</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.104826823058292</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>213</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>3.624611014680582</v>
       </c>
     </row>
@@ -9021,72 +8901,66 @@
         <v>1.296238471458403e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.5314412358337723</v>
+        <v>4.240887623778843e-08</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.019662116419479</v>
+        <v>6.387783104266808e-07</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>4.240887623778843e-08</v>
+        <v>-0.05452613389879649</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>6.387783104266808e-07</v>
+        <v>0.02729602819496947</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.05452613389879649</v>
+        <v>0.003718349223650223</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.02729602819496947</v>
+        <v>1.922400763108359</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.003718349223650223</v>
+        <v>3.358389426240516</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.950253943137514</v>
+        <v>5.048159227781847</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>3.358389426240516</v>
+        <v>1.496081698670031e-18</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>5.048159227781847</v>
+        <v>30144061563.98711</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.496081698670031e-18</v>
+        <v>3.990386332740409e-09</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>30144061563.98711</v>
+        <v>1359.436250246745</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>3.990386332740409e-09</v>
+        <v>8.222171762560862e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>1359.436250246745</v>
+        <v>11.62440053193348</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>8.222171762560862e-05</v>
+        <v>1.198605765040081</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>11.62440053193348</v>
+        <v>0.01111034836195801</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.198605765040081</v>
+        <v>4.449875130874119</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01111034836195801</v>
+        <v>0.9591055273011316</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>4.449875130874119</v>
+        <v>1.06415357426806</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9591055273011316</v>
+        <v>232</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.06415357426806</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>232</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>3.253154249924939</v>
       </c>
     </row>
@@ -9101,72 +8975,66 @@
         <v>1.270947212453561e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.5581643228292872</v>
+        <v>4.215004749616062e-08</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.965801251170562</v>
+        <v>6.380735509187867e-07</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>4.215004749616062e-08</v>
+        <v>-0.05527159263999911</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>6.380735509187867e-07</v>
+        <v>0.02803410896904068</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.05527159263999911</v>
+        <v>0.00384104788405754</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.02803410896904068</v>
+        <v>1.924505083815955</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.00384104788405754</v>
+        <v>3.031742934076813</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.950220496912974</v>
+        <v>4.99409724154466</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>3.031742934076813</v>
+        <v>1.528647714364107e-18</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.99409724154466</v>
+        <v>29482465354.43607</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.528647714364107e-18</v>
+        <v>4.079078035374719e-09</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>29482465354.43607</v>
+        <v>1328.724689973246</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>4.079078035374719e-09</v>
+        <v>8.424050412953879e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>1328.724689973246</v>
+        <v>9.034423268384828</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>8.424050412953879e-05</v>
+        <v>1.375427657420208</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.034423268384828</v>
+        <v>0.00687577765892432</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.375427657420208</v>
+        <v>4.455894579388326</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.00687577765892432</v>
+        <v>0.958874542625067</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>4.455894579388326</v>
+        <v>1.093619724880524</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.958874542625067</v>
+        <v>194</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.093619724880524</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>194</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>2.699568795512622</v>
       </c>
     </row>
@@ -9181,72 +9049,66 @@
         <v>1.244102438887356e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.5820396251746505</v>
+        <v>4.17738246671927e-08</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.9134005331942165</v>
+        <v>6.373740084530191e-07</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>4.17738246671927e-08</v>
+        <v>-0.05595989347176627</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>6.373740084530191e-07</v>
+        <v>0.02897669894656346</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.05595989347176627</v>
+        <v>0.003971358821546978</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.02897669894656346</v>
+        <v>1.923966099086384</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.003971358821546978</v>
+        <v>3.011502400730001</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.94640988441102</v>
+        <v>4.952550776575057</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>3.011502400730001</v>
+        <v>1.554402643815556e-18</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.952550776575057</v>
+        <v>28907461460.87998</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.554402643815556e-18</v>
+        <v>4.165242404392116e-09</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>28907461460.87998</v>
+        <v>1298.923089699241</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>4.165242404392116e-09</v>
+        <v>8.18702610770864e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>1298.923089699241</v>
+        <v>7.299910776355414</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>8.18702610770864e-05</v>
+        <v>1.642478846010826</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>7.299910776355414</v>
+        <v>0.004362759563908775</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.642478846010826</v>
+        <v>4.670580539758807</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.004362759563908775</v>
+        <v>0.9595568781475564</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>4.670580539758807</v>
+        <v>1.096197449847562</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9595568781475564</v>
+        <v>191</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.096197449847562</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>191</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>2.93835504713714</v>
       </c>
     </row>
@@ -9261,72 +9123,66 @@
         <v>1.215606858908857e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.602740725176596</v>
+        <v>4.135059373725119e-08</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.8646137419687343</v>
+        <v>6.366812529006925e-07</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>4.135059373725119e-08</v>
+        <v>-0.05669232276486435</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>6.366812529006925e-07</v>
+        <v>0.0299850826223274</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.05669232276486435</v>
+        <v>0.004113249762904969</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.0299850826223274</v>
+        <v>1.923501189817799</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.004113249762904969</v>
+        <v>2.895656297240091</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.944300426630839</v>
+        <v>4.985565355464885</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.895656297240091</v>
+        <v>1.349604954102624e-18</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.985565355464885</v>
+        <v>33670526393.75983</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.349604954102624e-18</v>
+        <v>3.574257640897311e-09</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>33670526393.75983</v>
+        <v>1530.053004053015</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>3.574257640897311e-09</v>
+        <v>7.510057409739185e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>1530.053004053015</v>
+        <v>7.162917941154104</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>7.510057409739185e-05</v>
+        <v>1.798750042056309</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>7.162917941154104</v>
+        <v>0.003853214702161974</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.798750042056309</v>
+        <v>5.051352220361607</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.003853214702161974</v>
+        <v>0.9611856909044295</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>5.051352220361607</v>
+        <v>1.091012487679242</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9611856909044295</v>
+        <v>203</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.091012487679242</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>203</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>3.855182318870219</v>
       </c>
     </row>
@@ -9341,72 +9197,66 @@
         <v>1.185814952856325e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.6199201298749397</v>
+        <v>4.080553066554528e-08</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.8204411548486124</v>
+        <v>6.359963463016254e-07</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>4.080553066554528e-08</v>
+        <v>-0.05735120525618257</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>6.359963463016254e-07</v>
+        <v>0.03099732915460839</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05735120525618257</v>
+        <v>0.004250013558530582</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.03099732915460839</v>
+        <v>1.920463741838394</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.004250013558530582</v>
+        <v>3.463662184797662</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.941187132326342</v>
+        <v>4.964093845334016</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>3.463662184797662</v>
+        <v>1.361305267457992e-18</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.964093845334016</v>
+        <v>32874026142.08503</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.361305267457992e-18</v>
+        <v>3.664850634186636e-09</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>32874026142.08503</v>
+        <v>1471.164773538546</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>3.664850634186636e-09</v>
+        <v>6.458642797141721e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>1471.164773538546</v>
+        <v>9.282014321288415</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>6.458642797141721e-05</v>
+        <v>1.421733600609458</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.282014321288415</v>
+        <v>0.005564494716152407</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.421733600609458</v>
+        <v>5.337771617010104</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.005564494716152407</v>
+        <v>0.9599357540284073</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>5.337771617010104</v>
+        <v>1.102839958192397</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9599357540284073</v>
+        <v>201</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.102839958192397</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>201</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>5.038410955596879</v>
       </c>
     </row>
@@ -9421,72 +9271,66 @@
         <v>1.155133228838718e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.6340933777303815</v>
+        <v>4.012707652482321e-08</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.7803571025173395</v>
+        <v>6.353219120396637e-07</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>4.012707652482321e-08</v>
+        <v>-0.0578962869027074</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>6.353219120396637e-07</v>
+        <v>0.03202761796755602</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.0578962869027074</v>
+        <v>0.004377697620102973</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.03202761796755602</v>
+        <v>1.924175964517696</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.004377697620102973</v>
+        <v>2.952666754376955</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.944834229763265</v>
+        <v>4.955734489029393</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>2.952666754376955</v>
+        <v>1.36590165308232e-18</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.955734489029393</v>
+        <v>33539725939.36292</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.36590165308232e-18</v>
+        <v>3.600323221175003e-09</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>33539725939.36292</v>
+        <v>1536.520821428166</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>3.600323221175003e-09</v>
+        <v>6.128050172756589e-05</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>1536.520821428166</v>
+        <v>10.38451426122472</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>6.128050172756589e-05</v>
+        <v>1.257936202036419</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>10.38451426122472</v>
+        <v>0.006608375106505704</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.257936202036419</v>
+        <v>5.283633817116526</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.006608375106505704</v>
+        <v>0.9605868198367702</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>5.283633817116526</v>
+        <v>1.090213786113487</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9605868198367702</v>
+        <v>193</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.090213786113487</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>193</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>5.417885148163702</v>
       </c>
     </row>
@@ -9501,72 +9345,66 @@
         <v>1.123877081239583e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.6446845386058141</v>
+        <v>3.958369488210884e-08</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.7454844489470411</v>
+        <v>6.346579665809824e-07</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>3.958369488210884e-08</v>
+        <v>-0.05870155656357665</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>6.346579665809824e-07</v>
+        <v>0.03291947190507099</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.05870155656357665</v>
+        <v>0.004529461013573884</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.03291947190507099</v>
+        <v>1.924902087254626</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.004529461013573884</v>
+        <v>2.917718542103246</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.94276046343024</v>
+        <v>4.840033748891436</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>2.917718542103246</v>
+        <v>1.431985800196181e-18</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.840033748891436</v>
+        <v>31846112711.59176</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.431985800196181e-18</v>
+        <v>3.786539520566747e-09</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>31846112711.59176</v>
+        <v>1452.284048325485</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>3.786539520566747e-09</v>
+        <v>6.377923208499054e-05</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>1452.284048325485</v>
+        <v>8.438770766136143</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>6.377923208499054e-05</v>
+        <v>1.517030675302182</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>8.438770766136143</v>
+        <v>0.004541901017909718</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.517030675302182</v>
+        <v>5.227132689697172</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.004541901017909718</v>
+        <v>0.9600722296914594</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>5.227132689697172</v>
+        <v>1.011770893711522</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9600722296914594</v>
+        <v>184</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.011770893711522</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>184</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>4.576271836440177</v>
       </c>
     </row>
@@ -9581,72 +9419,66 @@
         <v>1.092323276292583e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.6494462861565857</v>
+        <v>3.919670733938037e-08</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.7199840637019825</v>
+        <v>6.340015263523418e-07</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>3.919670733938037e-08</v>
+        <v>-0.05980756420498673</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>6.340015263523418e-07</v>
+        <v>0.03375851605064267</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.05980756420498673</v>
+        <v>0.00471638127952684</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.03375851605064267</v>
+        <v>1.929085809569511</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.00471638127952684</v>
+        <v>3.003031191579894</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.946588810337248</v>
+        <v>5.191347898127479</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>3.003031191579894</v>
+        <v>1.129546216536536e-18</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>5.191347898127479</v>
+        <v>40178590067.61721</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.129546216536536e-18</v>
+        <v>3.004606202905884e-09</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>40178590067.61721</v>
+        <v>1823.448031486186</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>3.004606202905884e-09</v>
+        <v>5.41340141232377e-05</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>1823.448031486186</v>
+        <v>7.036604092333694</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>5.41340141232377e-05</v>
+        <v>1.793218513634767</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>7.036604092333694</v>
+        <v>0.002680380594334881</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.793218513634767</v>
+        <v>5.292175763786103</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.002680380594334881</v>
+        <v>0.9604729870847115</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>5.292175763786103</v>
+        <v>1.045619818003234</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9604729870847115</v>
+        <v>194</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.045619818003234</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>194</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>4.461355342373249</v>
       </c>
     </row>
@@ -9661,72 +9493,66 @@
         <v>1.060812838652586e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.6469062603663213</v>
+        <v>3.874910612663289e-08</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.7071679891218468</v>
+        <v>6.333517989937233e-07</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>3.874910612663289e-08</v>
+        <v>-0.0608816755431074</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>6.333517989937233e-07</v>
+        <v>0.03448835717138514</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.0608816755431074</v>
+        <v>0.004895660712570654</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.03448835717138514</v>
+        <v>1.938748878271689</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.004895660712570654</v>
+        <v>3.324711231970678</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.952491615091052</v>
+        <v>5.502128882032926</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>3.324711231970678</v>
+        <v>1.005547881140421e-18</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>5.502128882032926</v>
+        <v>45109113685.19656</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.005547881140421e-18</v>
+        <v>2.680192939557457e-09</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>45109113685.19656</v>
+        <v>2046.121144303346</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>2.680192939557457e-09</v>
+        <v>5.551229900232417e-05</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>2046.121144303346</v>
+        <v>6.61451526111986</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>5.551229900232417e-05</v>
+        <v>1.886789031132616</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>6.61451526111986</v>
+        <v>0.002428763677386299</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.886789031132616</v>
+        <v>5.209685891815057</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.002428763677386299</v>
+        <v>0.959504311428215</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>5.209685891815057</v>
+        <v>1.041693061910974</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.959504311428215</v>
+        <v>237</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.041693061910974</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>237</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>4.232552546691655</v>
       </c>
     </row>
@@ -9741,72 +9567,66 @@
         <v>1.029798700241056e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.637196910914171</v>
+        <v>3.817532064487663e-08</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.7072340091494875</v>
+        <v>6.327106061379907e-07</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>3.817532064487663e-08</v>
+        <v>-0.06178684767314852</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>6.327106061379907e-07</v>
+        <v>0.03506333444647104</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.06178684767314852</v>
+        <v>0.005046587361469328</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.03506333444647104</v>
+        <v>1.936401315766343</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.005046587361469328</v>
+        <v>3.46673991193905</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.949446958473328</v>
+        <v>5.739255812802754</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>3.46673991193905</v>
+        <v>9.241726416022283e-19</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>5.739255812802754</v>
+        <v>47350442199.27894</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>9.241726416022283e-19</v>
+        <v>2.551876596683889e-09</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>47350442199.27894</v>
+        <v>2072.054557441997</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>2.551876596683889e-09</v>
+        <v>6.22848325093581e-05</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>2072.054557441997</v>
+        <v>6.895781072976003</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>6.22848325093581e-05</v>
+        <v>1.780113364790725</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>6.895781072976003</v>
+        <v>0.002961755687149563</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.780113364790725</v>
+        <v>5.053433473450401</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.002961755687149563</v>
+        <v>0.960185385954146</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>5.053433473450401</v>
+        <v>1.064841574339225</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.960185385954146</v>
+        <v>243</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.064841574339225</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>243</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>4.154282474895497</v>
       </c>
     </row>
@@ -9821,72 +9641,66 @@
         <v>9.995688316429842e-09</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.6208680692977286</v>
+        <v>3.746747722300687e-08</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.7201145787770309</v>
+        <v>6.320800144824428e-07</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>3.746747722300687e-08</v>
+        <v>-0.06247556685806632</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>6.320800144824428e-07</v>
+        <v>0.03544972719892717</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.06247556685806632</v>
+        <v>0.005159256064782717</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.03544972719892717</v>
+        <v>1.939006672368801</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.005159256064782717</v>
+        <v>3.406240878988477</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.949653066965781</v>
+        <v>5.813392242471505</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>3.406240878988477</v>
+        <v>9.007515536789621e-19</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>5.813392242471505</v>
+        <v>45956144324.5527</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>9.007515536789621e-19</v>
+        <v>2.614019930336942e-09</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>45956144324.5527</v>
+        <v>1902.357737781099</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>2.614019930336942e-09</v>
+        <v>6.593991215046723e-05</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>1902.357737781099</v>
+        <v>6.279253001206513</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>6.593991215046723e-05</v>
+        <v>1.924148341957597</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>6.279253001206513</v>
+        <v>0.002599945999792605</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.924148341957597</v>
+        <v>4.965154576080606</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.002599945999792605</v>
+        <v>0.9595588811795019</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>4.965154576080606</v>
+        <v>1.057758981568844</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9595588811795019</v>
+        <v>236</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.057758981568844</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>236</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>3.792561232703529</v>
       </c>
     </row>
@@ -9901,72 +9715,66 @@
         <v>9.704313852340938e-09</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.5996034092821279</v>
+        <v>3.654552809979167e-08</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.7433672921791112</v>
+        <v>6.314629008581169e-07</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>3.654552809979167e-08</v>
+        <v>-0.06276781850976824</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>6.314629008581169e-07</v>
+        <v>0.03553096689603241</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.06276781850976824</v>
+        <v>0.00520147706972621</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.03553096689603241</v>
+        <v>1.934395078925786</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.00520147706972621</v>
+        <v>3.139266486499082</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.94751916503857</v>
+        <v>5.739102403808181</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>3.139266486499082</v>
+        <v>1.030036064945736e-18</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>5.739102403808181</v>
+        <v>40450727962.40241</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.030036064945736e-18</v>
+        <v>2.969564604881464e-09</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>40450727962.40241</v>
+        <v>1685.40824614727</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>2.969564604881464e-09</v>
+        <v>6.770877213638318e-05</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>1685.40824614727</v>
+        <v>5.980563459095023</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>6.770877213638318e-05</v>
+        <v>1.854224217949842</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>5.980563459095023</v>
+        <v>0.002421749084039253</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.854224217949842</v>
+        <v>4.9093226539572</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.002421749084039253</v>
+        <v>0.9594886625523874</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>4.9093226539572</v>
+        <v>1.0130865377662</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9594886625523874</v>
+        <v>194</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.0130865377662</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>194</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>3.575576082126176</v>
       </c>
     </row>
@@ -9981,72 +9789,66 @@
         <v>9.425131741714178e-09</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.5764088632774744</v>
+        <v>3.537835178923305e-08</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.7728501842804691</v>
+        <v>6.308631650825773e-07</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>3.537835178923305e-08</v>
+        <v>-0.06256211177792521</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>6.308631650825773e-07</v>
+        <v>0.0355680602246634</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.06256211177792521</v>
+        <v>0.005178229464349654</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.0355680602246634</v>
+        <v>1.934591744949625</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.005178229464349654</v>
+        <v>3.089818069008708</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.949900167460898</v>
+        <v>5.59084726450587</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>3.089818069008708</v>
+        <v>1.302675983095897e-18</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>5.59084726450587</v>
+        <v>31822265736.1904</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.302675983095897e-18</v>
+        <v>3.770462758477892e-09</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>31822265736.1904</v>
+        <v>1319.163427494542</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>3.770462758477892e-09</v>
+        <v>7.330458581966439e-05</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>1319.163427494542</v>
+        <v>9.080815841954072</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>7.330458581966439e-05</v>
+        <v>1.498045030432759</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.080815841954072</v>
+        <v>0.006044785311124493</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.498045030432759</v>
+        <v>4.84957190908004</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.006044785311124493</v>
+        <v>0.9604335032690938</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>4.84957190908004</v>
+        <v>1.04613573901771</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9604335032690938</v>
+        <v>186</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.04613573901771</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>186</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>3.633225805069353</v>
       </c>
     </row>
@@ -10061,72 +9863,66 @@
         <v>9.155854654289863e-09</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.5549410375108688</v>
+        <v>3.400640101238123e-08</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-0.8049668973265929</v>
+        <v>6.302852987403791e-07</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>3.400640101238123e-08</v>
+        <v>-0.06173135364882952</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>6.302852987403791e-07</v>
+        <v>0.0360884382013414</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.06173135364882952</v>
+        <v>0.005112110402171226</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.0360884382013414</v>
+        <v>1.933783949693559</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.005112110402171226</v>
+        <v>3.011306236826846</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.949266219153473</v>
+        <v>5.562032886320811</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>3.011306236826846</v>
+        <v>1.794956811041464e-18</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>5.562032886320811</v>
+        <v>23431714634.59366</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1.794956811041464e-18</v>
+        <v>5.124196565876475e-09</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>23431714634.59366</v>
+        <v>985.5125123445027</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>5.124196565876475e-09</v>
+        <v>8.721282526009472e-05</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>985.5125123445027</v>
+        <v>12.2422672651328</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>8.721282526009472e-05</v>
+        <v>1.227762926012311</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>12.2422672651328</v>
+        <v>0.01307085716095879</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.227762926012311</v>
+        <v>4.73101951989752</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.01307085716095879</v>
+        <v>0.9603285895152046</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>4.73101951989752</v>
+        <v>1.076302383949418</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9603285895152046</v>
+        <v>186</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.076302383949418</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>186</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>3.781333262745349</v>
       </c>
     </row>
@@ -10141,72 +9937,66 @@
         <v>8.891552685014572e-09</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.5391119094610366</v>
+        <v>3.263883141987227e-08</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-0.8362895253686675</v>
+        <v>6.297344902141104e-07</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>3.263883141987227e-08</v>
+        <v>-0.06026178739520564</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>6.297344902141104e-07</v>
+        <v>0.03781295680098207</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.06026178739520564</v>
+        <v>0.005060078834439942</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.03781295680098207</v>
+        <v>1.930030262191569</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.005060078834439942</v>
+        <v>2.790272261728382</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.945664040740847</v>
+        <v>5.226684357479314</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>2.790272261728382</v>
+        <v>2.032677879004599e-18</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>5.226684357479314</v>
+        <v>20654989362.36372</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>2.032677879004599e-18</v>
+        <v>5.805380213759605e-09</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>20654989362.36372</v>
+        <v>867.198488417529</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>5.805380213759605e-09</v>
+        <v>8.411947991468281e-05</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>867.198488417529</v>
+        <v>12.6493661648337</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>8.411947991468281e-05</v>
+        <v>1.123310271405727</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>12.6493661648337</v>
+        <v>0.01345966056596321</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.123310271405727</v>
+        <v>4.693679247227038</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01345966056596321</v>
+        <v>0.9599379414538677</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>4.693679247227038</v>
+        <v>1.038901182339437</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9599379414538677</v>
+        <v>177</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.038901182339437</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>177</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>3.950171742095538</v>
       </c>
     </row>
@@ -10221,72 +10011,66 @@
         <v>8.62902089264546e-09</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.5310234429256386</v>
+        <v>3.130918610272074e-08</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-0.8633883332936247</v>
+        <v>6.292137607761408e-07</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>3.130918610272074e-08</v>
+        <v>-0.05862230237893424</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>6.292137607761408e-07</v>
+        <v>0.03988314621960053</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.05862230237893424</v>
+        <v>0.005026047108826788</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.03988314621960053</v>
+        <v>1.924891907575059</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.005026047108826788</v>
+        <v>3.042940673486932</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.946138508715602</v>
+        <v>5.221922796809532</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>3.042940673486932</v>
+        <v>2.036386525089104e-18</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>5.221922796809532</v>
+        <v>20575457415.52564</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>2.036386525089104e-18</v>
+        <v>5.820200578986261e-09</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>20575457415.52564</v>
+        <v>862.1031110221658</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>5.820200578986261e-09</v>
+        <v>0.0001035132190325377</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>862.1031110221658</v>
+        <v>9.553200846703692</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001035132190325377</v>
+        <v>1.397289374184998</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>9.553200846703692</v>
+        <v>0.009446993821318622</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.397289374184998</v>
+        <v>4.437571349678383</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.009446993821318622</v>
+        <v>0.959748554427782</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>4.437571349678383</v>
+        <v>1.109290279306908</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.959748554427782</v>
+        <v>179</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.109290279306908</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>179</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>3.089899680411896</v>
       </c>
     </row>
@@ -10301,72 +10085,66 @@
         <v>8.369302897720826e-09</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.5302847393812693</v>
+        <v>3.00343479991769e-08</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-0.8835562774690766</v>
+        <v>6.287218977810346e-07</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>3.00343479991769e-08</v>
+        <v>-0.05716000280589714</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>6.287218977810346e-07</v>
+        <v>0.04151659702937756</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.05716000280589714</v>
+        <v>0.004989766343555121</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.04151659702937756</v>
+        <v>1.928842204357785</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.004989766343555121</v>
+        <v>2.943939278960514</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.94717829886257</v>
+        <v>4.893370938325146</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>2.943939278960514</v>
+        <v>2.319021800459785e-18</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.893370938325146</v>
+        <v>18757025444.54568</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>2.319021800459785e-18</v>
+        <v>6.40132464034432e-09</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>18757025444.54568</v>
+        <v>815.8921721485291</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>6.40132464034432e-09</v>
+        <v>0.0001321057509694411</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>815.8921721485291</v>
+        <v>8.332742978764863</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001321057509694411</v>
+        <v>1.590656377879117</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>8.332742978764863</v>
+        <v>0.009172710709470164</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.590656377879117</v>
+        <v>4.004108832342058</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.009172710709470164</v>
+        <v>0.9603517903495664</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>4.004108832342058</v>
+        <v>1.094642312712471</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9603517903495664</v>
+        <v>165</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.094642312712471</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>165</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>2.248373024119242</v>
       </c>
     </row>
@@ -10381,72 +10159,66 @@
         <v>8.116056936135692e-09</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.5361230901924768</v>
+        <v>2.878351709479132e-08</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.8938883011450174</v>
+        <v>6.282558285138018e-07</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2.878351709479132e-08</v>
+        <v>-0.05598240387976243</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>6.282558285138018e-07</v>
+        <v>0.04227626390866293</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.05598240387976243</v>
+        <v>0.004920201158153783</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.04227626390866293</v>
+        <v>1.928848093007705</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.004920201158153783</v>
+        <v>2.972460424360687</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.949005844405188</v>
+        <v>4.62428426057501</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>2.972460424360687</v>
+        <v>2.596761492549419e-18</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.62428426057501</v>
+        <v>16646649627.18046</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>2.596761492549419e-18</v>
+        <v>7.197763626494734e-09</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>16646649627.18046</v>
+        <v>719.5910280501128</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>7.197763626494734e-09</v>
+        <v>0.0001460934669408587</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>719.5910280501128</v>
+        <v>8.870637983723361</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001460934669408587</v>
+        <v>1.432825441958783</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>8.870637983723361</v>
+        <v>0.0114958346098286</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.432825441958783</v>
+        <v>3.679756131714332</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.0114958346098286</v>
+        <v>0.9592716896491514</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.679756131714332</v>
+        <v>1.039107402916713</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9592716896491514</v>
+        <v>156</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.039107402916713</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>156</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>1.719973531609225</v>
       </c>
     </row>
@@ -10823,7 +10595,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.451789876968484</v>
+        <v>1.471470713227869</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.055693785577392</v>
@@ -10912,7 +10684,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.438675030244755</v>
+        <v>1.458072407175252</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.998731254101062</v>
@@ -11001,7 +10773,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.473184874526266</v>
+        <v>1.491580871259675</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.93160452639407</v>
@@ -11090,7 +10862,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.469873967966639</v>
+        <v>1.491251956977047</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.061639114123297</v>
@@ -11179,7 +10951,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.459984670870531</v>
+        <v>1.481144848441884</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.145391834344023</v>
@@ -11268,7 +11040,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.477850817630612</v>
+        <v>1.498678887142917</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.047132190194448</v>
@@ -11357,7 +11129,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.462962827765457</v>
+        <v>1.478525720241929</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.98796462890098</v>
@@ -11446,7 +11218,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.481741990689083</v>
+        <v>1.501318389254503</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.046155695985999</v>
@@ -11535,7 +11307,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.486451105319244</v>
+        <v>1.496730661238878</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.105634211864469</v>
@@ -11624,7 +11396,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.484858591240531</v>
+        <v>1.501895869672434</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.080556682432867</v>
@@ -11713,7 +11485,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.452052014264239</v>
+        <v>1.4529622227834</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.115122612376626</v>
@@ -11802,7 +11574,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.450012656099688</v>
+        <v>1.452661339632402</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.204465509019094</v>
@@ -11891,7 +11663,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.424997070319757</v>
+        <v>1.423199289854467</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.165069340157654</v>
@@ -11980,7 +11752,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.423289425107806</v>
+        <v>1.423653702575616</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.145877167549701</v>
@@ -12069,7 +11841,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.449553458363901</v>
+        <v>1.447583749652914</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.139004497269924</v>
@@ -12158,7 +11930,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.449498906879526</v>
+        <v>1.444139781410581</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.239034367372159</v>
@@ -12247,7 +12019,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.453443337036647</v>
+        <v>1.449210749410306</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.304071929596685</v>
@@ -12336,7 +12108,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.418710155179724</v>
+        <v>1.416331372483909</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.240936454097865</v>
@@ -12425,7 +12197,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.44434309847761</v>
+        <v>1.438493530478412</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.142979373051773</v>
@@ -12514,7 +12286,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.467067891435456</v>
+        <v>1.460760010242615</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.158209272379431</v>
@@ -12603,7 +12375,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.459378923482618</v>
+        <v>1.453315472724289</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.23740273491749</v>
@@ -12692,7 +12464,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.492047786930142</v>
+        <v>1.481915573879909</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.259910745803742</v>
@@ -12781,7 +12553,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.490850289454828</v>
+        <v>1.481294139145314</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.303438746269093</v>
@@ -12870,7 +12642,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.515105108967737</v>
+        <v>1.501860203633134</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.221950885672186</v>
@@ -12959,7 +12731,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.518615724472386</v>
+        <v>1.506711515316553</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.183710986833223</v>
@@ -13048,7 +12820,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.492299877527378</v>
+        <v>1.479151325820042</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.127893443175362</v>
@@ -13137,7 +12909,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.512177033193517</v>
+        <v>1.499659555385332</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.21387048965474</v>
@@ -13226,7 +12998,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.545353625147273</v>
+        <v>1.531328687612707</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.199442440273813</v>
@@ -13315,7 +13087,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.529732601113171</v>
+        <v>1.51741898968747</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.148481419455831</v>
@@ -13404,7 +13176,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.533432931301436</v>
+        <v>1.519418048841746</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.158797246211355</v>
@@ -13493,7 +13265,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.511856207207923</v>
+        <v>1.499805869826778</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.140033372715522</v>
@@ -13582,7 +13354,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.516021715909289</v>
+        <v>1.503469682218248</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.062671599699823</v>
@@ -13671,7 +13443,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.558214884963645</v>
+        <v>1.541916997611024</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.16508259653666</v>
@@ -13760,7 +13532,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.555771666914854</v>
+        <v>1.545050693175631</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.171638405286849</v>
@@ -13849,7 +13621,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.572459158442298</v>
+        <v>1.559557783909912</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.159739669820791</v>
@@ -13938,7 +13710,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.54670391747526</v>
+        <v>1.534830431798926</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.191241123760106</v>
@@ -14027,7 +13799,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.54907626334956</v>
+        <v>1.538071740064147</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.124458155046705</v>
@@ -14116,7 +13888,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.558133720694376</v>
+        <v>1.548606068603369</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.128609885674758</v>
@@ -14205,7 +13977,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.538600515717265</v>
+        <v>1.532649629241098</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.144117771649953</v>
@@ -14294,7 +14066,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.535190824602632</v>
+        <v>1.528186368627919</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.158012216108123</v>
@@ -14383,7 +14155,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.58208116867368</v>
+        <v>1.571002216210551</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.123678121579305</v>
@@ -14472,7 +14244,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.543935184766783</v>
+        <v>1.536747794961354</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.175644018858393</v>
@@ -14561,7 +14333,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.551880134206244</v>
+        <v>1.535953872443931</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.067326558984021</v>
@@ -14650,7 +14422,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.563366482211459</v>
+        <v>1.551582217483372</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.168565174362592</v>
@@ -14739,7 +14511,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.556274951641152</v>
+        <v>1.549862363023785</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.191257254739292</v>
@@ -14828,7 +14600,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.581453403957934</v>
+        <v>1.567893423894129</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.449729018505113</v>
@@ -14917,7 +14689,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.580591499731396</v>
+        <v>1.571815212651178</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.35065529581783</v>
@@ -15006,7 +14778,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.559401825666057</v>
+        <v>1.549399349694541</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.39707636947872</v>
@@ -15095,7 +14867,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.563823518899141</v>
+        <v>1.541278147611292</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.384214852448542</v>
@@ -15184,7 +14956,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.557569163251684</v>
+        <v>1.535747506635551</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.446650399668286</v>
@@ -15273,7 +15045,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.531471792014679</v>
+        <v>1.51532457976839</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.097328227069597</v>
@@ -15362,7 +15134,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.534778025752302</v>
+        <v>1.520303471934874</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.101859958539786</v>
@@ -15451,7 +15223,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.526737108908623</v>
+        <v>1.51279206838653</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.119594590672245</v>
@@ -15540,7 +15312,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.547878924375336</v>
+        <v>1.532783755126818</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.132937149871745</v>
@@ -15629,7 +15401,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.546258936565582</v>
+        <v>1.535642233796694</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.087585433525138</v>
@@ -15718,7 +15490,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.543698866055009</v>
+        <v>1.533910710986614</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.061882409997602</v>
@@ -15807,7 +15579,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.558461708199164</v>
+        <v>1.548168218138277</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.089545246218012</v>
@@ -15896,7 +15668,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.555068182226232</v>
+        <v>1.547774014838318</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.065828600678514</v>
@@ -15985,7 +15757,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.525017932724649</v>
+        <v>1.522415154755629</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.072922761685177</v>
@@ -16074,7 +15846,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.500481540505332</v>
+        <v>1.50113039942873</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.154858172919276</v>
@@ -16163,7 +15935,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.525036613792546</v>
+        <v>1.527181111340007</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.141776643594436</v>
@@ -16252,7 +16024,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.525549623258302</v>
+        <v>1.526949874313162</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.142404278233045</v>
@@ -16341,7 +16113,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.544380872360049</v>
+        <v>1.550528738459779</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.066606508169861</v>
@@ -16430,7 +16202,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.520848875551218</v>
+        <v>1.537573956893668</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.123357918779659</v>
@@ -16519,7 +16291,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.525019905453204</v>
+        <v>1.542740080960565</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.065037187270047</v>
@@ -16608,7 +16380,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.547108263758103</v>
+        <v>1.566371188463092</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.200235179491132</v>
@@ -16697,7 +16469,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.50565944741842</v>
+        <v>1.523220420148168</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.194242241834274</v>
@@ -16786,7 +16558,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.501117639518617</v>
+        <v>1.520593962613473</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.254156229903956</v>
@@ -16875,7 +16647,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.504691681551306</v>
+        <v>1.525777192495096</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.234788712277667</v>
@@ -16964,7 +16736,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.512440558704399</v>
+        <v>1.528738349980149</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.250106030618998</v>
@@ -17053,7 +16825,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.514373357453365</v>
+        <v>1.529147888304215</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.284622737141963</v>
@@ -17142,7 +16914,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.512327302459664</v>
+        <v>1.525524126453422</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.312444821897501</v>
@@ -17231,7 +17003,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.485012861806911</v>
+        <v>1.493825134109094</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.107646577732876</v>
@@ -17320,7 +17092,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.504305998881062</v>
+        <v>1.512818533026878</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.284461076752362</v>
@@ -17409,7 +17181,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.490002072798272</v>
+        <v>1.498841787757327</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.33885185073051</v>
@@ -17498,7 +17270,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.452786851671143</v>
+        <v>1.464039501024807</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.296480444659564</v>
@@ -17587,7 +17359,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.446838503389592</v>
+        <v>1.450634365858965</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.293788676239726</v>
@@ -17676,7 +17448,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.40212155643314</v>
+        <v>1.409813098239296</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.189082774539215</v>
@@ -17765,7 +17537,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.419699592547578</v>
+        <v>1.427340531571509</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.232656122795998</v>
@@ -17854,7 +17626,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.423603044461812</v>
+        <v>1.425687606867733</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.118258586590497</v>
@@ -17943,7 +17715,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.416902346779601</v>
+        <v>1.416503123837557</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.202715610964716</v>
@@ -18229,7 +18001,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.495927572277271</v>
+        <v>1.532528586193661</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.621937826097961</v>
@@ -18318,7 +18090,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.48187794937398</v>
+        <v>1.521869404099849</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.636325112690197</v>
@@ -18407,7 +18179,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.486154594458415</v>
+        <v>1.525275370877114</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.629472143876036</v>
@@ -18496,7 +18268,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.48093404692863</v>
+        <v>1.519209321164326</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.619725737017039</v>
@@ -18585,7 +18357,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.471960679156383</v>
+        <v>1.508018565304162</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.603235040034096</v>
@@ -18674,7 +18446,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.478728652508802</v>
+        <v>1.513113834132517</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.623168985795359</v>
@@ -18763,7 +18535,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.475694759242956</v>
+        <v>1.508001897904483</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.623551836077881</v>
@@ -18852,7 +18624,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.475133228943353</v>
+        <v>1.506641050789444</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.618256535149706</v>
@@ -18941,7 +18713,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.474271785265273</v>
+        <v>1.505723030629834</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.616958904909307</v>
@@ -19030,7 +18802,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.478113486207772</v>
+        <v>1.509437705634407</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.619495726303101</v>
@@ -19119,7 +18891,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.534129613527588</v>
+        <v>1.519924570879308</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.22834295601521</v>
@@ -19208,7 +18980,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.561872715452882</v>
+        <v>1.544655203692151</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.949237243833247</v>
@@ -19297,7 +19069,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.553459718646224</v>
+        <v>1.535614983976222</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.859901986570353</v>
@@ -19386,7 +19158,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.526971750994223</v>
+        <v>1.514715120376198</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.577369629679922</v>
@@ -19475,7 +19247,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.536342942367017</v>
+        <v>1.523945251919765</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.850290555063137</v>
@@ -19564,7 +19336,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.547670017447147</v>
+        <v>1.531697151099766</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.768638898192767</v>
@@ -19653,7 +19425,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.566625637245041</v>
+        <v>1.545812920658196</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.595958730407792</v>
@@ -19742,7 +19514,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.544551093198549</v>
+        <v>1.525581882140655</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.76591809398956</v>
@@ -19831,7 +19603,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.565058930887178</v>
+        <v>1.538536670965508</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.620531567720553</v>
@@ -19920,7 +19692,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.572689821295126</v>
+        <v>1.545347490788523</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.875054202137298</v>
@@ -20009,7 +19781,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.555184948766747</v>
+        <v>1.529646146396523</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.660148309941269</v>
@@ -20098,7 +19870,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.554948907817848</v>
+        <v>1.528320379818814</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.730960746499854</v>
@@ -20187,7 +19959,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.535047473804628</v>
+        <v>1.508512503585351</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.880941555524354</v>
@@ -20276,7 +20048,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.533730824056728</v>
+        <v>1.511721150810879</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.64007116793896</v>
@@ -20365,7 +20137,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.533511568992994</v>
+        <v>1.50848815114127</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.863133416741545</v>
@@ -20454,7 +20226,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.525785473883092</v>
+        <v>1.50014342775798</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.660599214859952</v>
@@ -20543,7 +20315,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.529942187223865</v>
+        <v>1.506195847851158</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.870274270967826</v>
@@ -20632,7 +20404,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.53628103077212</v>
+        <v>1.515203230383952</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.636312775065595</v>
@@ -20721,7 +20493,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.54902006218483</v>
+        <v>1.530699693316813</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.741812719959294</v>
@@ -20810,7 +20582,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.527441414101745</v>
+        <v>1.512519016406655</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.793813363916823</v>
@@ -20899,7 +20671,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.513047800148219</v>
+        <v>1.501301801058629</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.650123798857051</v>
@@ -20988,7 +20760,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.504319740899877</v>
+        <v>1.491556817609264</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.599402992446898</v>
@@ -21077,7 +20849,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.51985974933603</v>
+        <v>1.50493155839677</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.869023347345464</v>
@@ -21166,7 +20938,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.514768440846401</v>
+        <v>1.500903348707727</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.832647171875016</v>
@@ -21255,7 +21027,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.521369981327598</v>
+        <v>1.510922278460106</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.745775634040535</v>
@@ -21344,7 +21116,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.518142307313929</v>
+        <v>1.497192726957017</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.790738212431007</v>
@@ -21433,7 +21205,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.503484611560206</v>
+        <v>1.492575451954699</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.756486483821824</v>
@@ -21522,7 +21294,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.530907000874962</v>
+        <v>1.519376043447785</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.734566456421915</v>
@@ -21611,7 +21383,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.531556563501999</v>
+        <v>1.520209318947275</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.779279078685901</v>
@@ -21700,7 +21472,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.528482415499457</v>
+        <v>1.519887099514747</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.755801160047525</v>
@@ -21789,7 +21561,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.545884361383105</v>
+        <v>1.537113362410185</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.746104130783948</v>
@@ -21878,7 +21650,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.536442614484002</v>
+        <v>1.529841934403438</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.74439424878625</v>
@@ -21967,7 +21739,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.540155466899219</v>
+        <v>1.527558627403072</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.771163635817918</v>
@@ -22056,7 +21828,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.557004160543206</v>
+        <v>1.540483851167134</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.762992907508118</v>
@@ -22145,7 +21917,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.563209354063925</v>
+        <v>1.547565119900796</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.742567402959729</v>
@@ -22234,7 +22006,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.571529242807274</v>
+        <v>1.552497072061199</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.757478137476687</v>
@@ -22323,7 +22095,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.580069247494126</v>
+        <v>1.566512548971225</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.727023984209359</v>
@@ -22412,7 +22184,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.57705244172743</v>
+        <v>1.562919689015903</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.744919398374886</v>
@@ -22501,7 +22273,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.583090489365578</v>
+        <v>1.563080858769615</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.738750813654307</v>
@@ -22590,7 +22362,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.583025562370711</v>
+        <v>1.556629090866807</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.747841478629302</v>
@@ -22679,7 +22451,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.611199574373314</v>
+        <v>1.586240114450644</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.638793326421132</v>
@@ -22768,7 +22540,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.624079499991938</v>
+        <v>1.599932727935084</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.942139676030761</v>
@@ -22857,7 +22629,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.614278263887695</v>
+        <v>1.590445724373136</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.813977091632491</v>
@@ -22946,7 +22718,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.61270157765259</v>
+        <v>1.590573391904071</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.799421045377168</v>
@@ -23035,7 +22807,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.606899136460093</v>
+        <v>1.590297982129649</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.769780969969646</v>
@@ -23124,7 +22896,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.599328233251725</v>
+        <v>1.582128123760205</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.797725095061461</v>
@@ -23213,7 +22985,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.604189877239802</v>
+        <v>1.583118130189828</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.764735717486414</v>
@@ -23302,7 +23074,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.61717765613516</v>
+        <v>1.594305454225628</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.794251788744447</v>
@@ -23391,7 +23163,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.608522151801726</v>
+        <v>1.587523980745622</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.76203720004368</v>
@@ -23480,7 +23252,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.605264787999901</v>
+        <v>1.583796323662876</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.715182747756069</v>
@@ -23569,7 +23341,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.625035723066439</v>
+        <v>1.602150000413151</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.495444721961627</v>
@@ -23658,7 +23430,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.627860166308608</v>
+        <v>1.604444098962237</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.726397846664952</v>
@@ -23747,7 +23519,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.633899766166177</v>
+        <v>1.610807851517918</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.775029485157753</v>
@@ -23836,7 +23608,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.619764234581871</v>
+        <v>1.60728545408399</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.767279830712261</v>
@@ -23925,7 +23697,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.61112110231321</v>
+        <v>1.598666188611686</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.785106169640811</v>
@@ -24014,7 +23786,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.623134823882479</v>
+        <v>1.610592200011413</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.793352128766317</v>
@@ -24103,7 +23875,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.608370578442652</v>
+        <v>1.597231091782928</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.736058632812438</v>
@@ -24192,7 +23964,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.614096664078904</v>
+        <v>1.600843502565502</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.798925143449916</v>
@@ -24281,7 +24053,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.631847385587458</v>
+        <v>1.614783672731002</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.813684790010605</v>
@@ -24370,7 +24142,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.638638936366118</v>
+        <v>1.619659090237511</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.782655928118242</v>
@@ -24459,7 +24231,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.640883444255253</v>
+        <v>1.623433853504392</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.854244713069183</v>
@@ -24548,7 +24320,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.634515354397263</v>
+        <v>1.615429481385453</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.826256310716879</v>
@@ -24637,7 +24409,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.613545569504639</v>
+        <v>1.594501195988547</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.66700298994402</v>
@@ -24726,7 +24498,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.612709073032871</v>
+        <v>1.591411177987183</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.847158597002986</v>
@@ -24815,7 +24587,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.604963173506502</v>
+        <v>1.587533979894512</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.557986016724051</v>
@@ -24904,7 +24676,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.585696755248508</v>
+        <v>1.573688570943713</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.84869300680823</v>
@@ -24993,7 +24765,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.572813841842165</v>
+        <v>1.562476129477286</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.813564378288427</v>
@@ -25082,7 +24854,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.551131441095652</v>
+        <v>1.549309332374606</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.727230398637516</v>
@@ -25171,7 +24943,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.564297660312178</v>
+        <v>1.563530512858619</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.72681408586517</v>
@@ -25260,7 +25032,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.5710239082775</v>
+        <v>1.56945428174638</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.549187366705532</v>
@@ -25349,7 +25121,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.55877432813546</v>
+        <v>1.553804420496762</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.554380169248342</v>
@@ -25635,7 +25407,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.792290947683397</v>
+        <v>1.757566340845106</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.982714596341278</v>
@@ -25724,7 +25496,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.791960772054244</v>
+        <v>1.757957687741663</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.000433657391703</v>
@@ -25813,7 +25585,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.78931173636544</v>
+        <v>1.755807469726033</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.969960347090789</v>
@@ -25902,7 +25674,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.788016374846939</v>
+        <v>1.756690389941625</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.984184922091088</v>
@@ -25991,7 +25763,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.786310965564445</v>
+        <v>1.755365159733732</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.985168427027177</v>
@@ -26080,7 +25852,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.789014361850545</v>
+        <v>1.760394515825713</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.975662178728111</v>
@@ -26169,7 +25941,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.787320937368079</v>
+        <v>1.758244506408577</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.976006244728293</v>
@@ -26258,7 +26030,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.787870907157825</v>
+        <v>1.756551017773192</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.981274837331662</v>
@@ -26347,7 +26119,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.793285319071554</v>
+        <v>1.756577995979062</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.987662560509681</v>
@@ -26436,7 +26208,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.792613606853778</v>
+        <v>1.752694557722901</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.002769372772067</v>
@@ -26525,7 +26297,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.774305697115419</v>
+        <v>1.724440481478135</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.646504514993914</v>
@@ -26614,7 +26386,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.785072028861163</v>
+        <v>1.735943236324085</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.987643618922036</v>
@@ -26703,7 +26475,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.777366225536134</v>
+        <v>1.72634976195157</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.805158829510837</v>
@@ -26792,7 +26564,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.766987734448394</v>
+        <v>1.723597084134704</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.951549766592919</v>
@@ -26881,7 +26653,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.76971568785231</v>
+        <v>1.722197830637852</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.806830682428294</v>
@@ -26970,7 +26742,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.777988430081175</v>
+        <v>1.733503180253584</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.632169931996541</v>
@@ -27059,7 +26831,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.779756824952816</v>
+        <v>1.734373427711291</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.468231664110474</v>
@@ -27148,7 +26920,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.780155695189016</v>
+        <v>1.733775470438997</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.422066589409611</v>
@@ -27237,7 +27009,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.78903259524426</v>
+        <v>1.73963812274582</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.574907250013281</v>
@@ -27326,7 +27098,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.782020849761653</v>
+        <v>1.736717121442808</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.627926992047112</v>
@@ -27415,7 +27187,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.769891241174874</v>
+        <v>1.721050568692015</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.400554700285508</v>
@@ -27504,7 +27276,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.763105072489023</v>
+        <v>1.715106634915865</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.890787065411222</v>
@@ -27593,7 +27365,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.730189838736584</v>
+        <v>1.689092026473846</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.450111129891717</v>
@@ -27682,7 +27454,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.71948412523362</v>
+        <v>1.68555009072787</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.555265756342069</v>
@@ -27771,7 +27543,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.73228380649308</v>
+        <v>1.704688264698084</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.266910160753567</v>
@@ -27860,7 +27632,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.734807142067121</v>
+        <v>1.707170210980154</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.63278731421227</v>
@@ -27949,7 +27721,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.727226198503455</v>
+        <v>1.699186918231778</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.38914885304931</v>
@@ -28038,7 +27810,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.730257528634841</v>
+        <v>1.703338030963498</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.101475269519134</v>
@@ -28127,7 +27899,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.742381822675072</v>
+        <v>1.713499840882077</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.370782399061642</v>
@@ -28216,7 +27988,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.730418351031658</v>
+        <v>1.708424155615787</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.469289783318047</v>
@@ -28305,7 +28077,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.718829563664334</v>
+        <v>1.695936532277356</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.483188836345808</v>
@@ -28394,7 +28166,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.721039528832221</v>
+        <v>1.699024859181581</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.314447470579766</v>
@@ -28483,7 +28255,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.723805092761742</v>
+        <v>1.707341965209089</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.539244877471039</v>
@@ -28572,7 +28344,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.722549858696426</v>
+        <v>1.707576686886547</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.440520208680363</v>
@@ -28661,7 +28433,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.72678927496143</v>
+        <v>1.714628060061357</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.505301611701023</v>
@@ -28750,7 +28522,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.722899749538783</v>
+        <v>1.708683313347175</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.094347665541182</v>
@@ -28839,7 +28611,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.726440445317529</v>
+        <v>1.714658279470267</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.28943897967804</v>
@@ -28928,7 +28700,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.764988337870573</v>
+        <v>1.753562421147072</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.294690062823344</v>
@@ -29017,7 +28789,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.771891961871206</v>
+        <v>1.755632219293551</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.967458757786873</v>
@@ -29106,7 +28878,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.767177888117301</v>
+        <v>1.747120655638611</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.969620206249884</v>
@@ -29195,7 +28967,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.765076908895203</v>
+        <v>1.746651525554309</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.213189705517391</v>
@@ -29284,7 +29056,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.761994262170864</v>
+        <v>1.745657864437414</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.090146367983269</v>
@@ -29373,7 +29145,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.759643942478214</v>
+        <v>1.741433858482707</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.010522041479821</v>
@@ -29462,7 +29234,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.771256263892405</v>
+        <v>1.748727500500701</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.767066571655106</v>
@@ -29551,7 +29323,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.767780852126237</v>
+        <v>1.743525660934762</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.948112657734842</v>
@@ -29640,7 +29412,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.776467328212004</v>
+        <v>1.745659315175938</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.823460760177868</v>
@@ -29729,7 +29501,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.773171828727203</v>
+        <v>1.746724416243592</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.247765776504955</v>
@@ -29818,7 +29590,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.769051846178946</v>
+        <v>1.735457137915779</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.256906925186122</v>
@@ -29907,7 +29679,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.774643610814156</v>
+        <v>1.735048715687125</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.19197154205786</v>
@@ -29996,7 +29768,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.769476524608182</v>
+        <v>1.727836073448764</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.141074693860444</v>
@@ -30085,7 +29857,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.777649142176141</v>
+        <v>1.738076632443516</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.062780117880421</v>
@@ -30174,7 +29946,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.77818693192041</v>
+        <v>1.738674877444534</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.225645265130385</v>
@@ -30263,7 +30035,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.773603076961801</v>
+        <v>1.727600846374775</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.107823172290775</v>
@@ -30352,7 +30124,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.763912297253823</v>
+        <v>1.719973946013708</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.959117892869389</v>
@@ -30441,7 +30213,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.760078585848563</v>
+        <v>1.719382450226677</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.947565951824357</v>
@@ -30530,7 +30302,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.755262364540928</v>
+        <v>1.710308034382774</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.640037536695768</v>
@@ -30619,7 +30391,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.757094422415443</v>
+        <v>1.715239858836654</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.638479189946251</v>
@@ -30708,7 +30480,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.766676533331379</v>
+        <v>1.725188268690643</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.959812271487789</v>
@@ -30797,7 +30569,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.758742080923845</v>
+        <v>1.718693415404215</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.678904039194967</v>
@@ -30886,7 +30658,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.767836398360268</v>
+        <v>1.73298859811765</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.628705038972851</v>
@@ -30975,7 +30747,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.779612999528823</v>
+        <v>1.747650899541048</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.920650835756768</v>
@@ -31064,7 +30836,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.779015978770569</v>
+        <v>1.748001827770207</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.962335095616219</v>
@@ -31153,7 +30925,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.778431972592619</v>
+        <v>1.751047258242832</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.54692139179056</v>
@@ -31242,7 +31014,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.784480738642384</v>
+        <v>1.761315852056471</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.5392658493623</v>
@@ -31331,7 +31103,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.788888555753465</v>
+        <v>1.764343655183062</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.488900819100516</v>
@@ -31420,7 +31192,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.805339557923292</v>
+        <v>1.780099117447417</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.904878605253543</v>
@@ -31509,7 +31281,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.801258473589981</v>
+        <v>1.774444254508238</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.507350677409141</v>
@@ -31598,7 +31370,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.803040562724337</v>
+        <v>1.779546015484681</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.860031486928449</v>
@@ -31687,7 +31459,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.813021884509161</v>
+        <v>1.788048674292101</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.417328710066769</v>
@@ -31776,7 +31548,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.81376054240091</v>
+        <v>1.790662853247908</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>4.236388716611511</v>
@@ -31865,7 +31637,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.808898965492447</v>
+        <v>1.79405876404631</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.650479970339196</v>
@@ -31954,7 +31726,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.813579019089964</v>
+        <v>1.792103237599965</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.773700309215515</v>
@@ -32043,7 +31815,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.802092644975457</v>
+        <v>1.780852247395325</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.7386280638775</v>
@@ -32132,7 +31904,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.816431581740399</v>
+        <v>1.797069249145969</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.720237186897021</v>
@@ -32221,7 +31993,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.812194853125415</v>
+        <v>1.790035832854919</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.770071466246683</v>
@@ -32310,7 +32082,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.800827022251902</v>
+        <v>1.782477201267694</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>4.098644544923388</v>
@@ -32399,7 +32171,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.802859914593989</v>
+        <v>1.783378320634347</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.899849037044766</v>
@@ -32488,7 +32260,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.795876246804621</v>
+        <v>1.780439169025448</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>4.081527599283244</v>
@@ -32577,7 +32349,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.794362881454614</v>
+        <v>1.777012289928787</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.598095752651021</v>
@@ -32666,7 +32438,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.792732231788266</v>
+        <v>1.775795307232682</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>4.133729253764259</v>
@@ -32755,7 +32527,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.770395907051522</v>
+        <v>1.75399122403258</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.490300081075336</v>
@@ -33041,7 +32813,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.718072041905293</v>
+        <v>1.716220626172853</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.965924301701552</v>
@@ -33130,7 +32902,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.710008890056647</v>
+        <v>1.711284280829123</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.007363566910742</v>
@@ -33219,7 +32991,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.714222672257358</v>
+        <v>1.713622120041176</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.990925177153423</v>
@@ -33308,7 +33080,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.710557432881533</v>
+        <v>1.71435814387416</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.968079649319036</v>
@@ -33397,7 +33169,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.706164581765723</v>
+        <v>1.71292422707532</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.918486610166258</v>
@@ -33486,7 +33258,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.709085818695395</v>
+        <v>1.712758720302769</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.953857162176174</v>
@@ -33575,7 +33347,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.708547333337596</v>
+        <v>1.711176421169521</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.946665333003526</v>
@@ -33664,7 +33436,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.712717482441015</v>
+        <v>1.713207193447279</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.957853965257285</v>
@@ -33753,7 +33525,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.707470431727291</v>
+        <v>1.705988627895327</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.958690906248973</v>
@@ -33842,7 +33614,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.71267413504758</v>
+        <v>1.712789469351754</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.975692259886973</v>
@@ -33931,7 +33703,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.738115086514019</v>
+        <v>1.704992095362838</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.882572246064435</v>
@@ -34020,7 +33792,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.758198755023394</v>
+        <v>1.721067242674436</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.843792174009949</v>
@@ -34109,7 +33881,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.753477092736013</v>
+        <v>1.719265995210876</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.849298703996338</v>
@@ -34198,7 +33970,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.753935550832218</v>
+        <v>1.731609972214396</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.417684693418817</v>
@@ -34287,7 +34059,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.748024453567208</v>
+        <v>1.723771499637821</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.980137511283859</v>
@@ -34376,7 +34148,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.746102749786803</v>
+        <v>1.715989476908969</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.472633452128351</v>
@@ -34465,7 +34237,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.747723488053633</v>
+        <v>1.716879849479498</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.671176486018745</v>
@@ -34554,7 +34326,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.730992597976829</v>
+        <v>1.707369432618262</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.750870438130893</v>
@@ -34643,7 +34415,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.740366718745382</v>
+        <v>1.713306014654898</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.878713067311698</v>
@@ -34732,7 +34504,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.75175404104666</v>
+        <v>1.719515723209279</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.807569226054066</v>
@@ -34821,7 +34593,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.747807292741647</v>
+        <v>1.714630570999721</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.609388170599255</v>
@@ -34910,7 +34682,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.753213311407835</v>
+        <v>1.72288729359913</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.565254787809814</v>
@@ -34999,7 +34771,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.747225722665326</v>
+        <v>1.719242049283524</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.527407861064484</v>
@@ -35088,7 +34860,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.754422036584376</v>
+        <v>1.723304776999998</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.434334085700723</v>
@@ -35177,7 +34949,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.74935235129636</v>
+        <v>1.717325375500041</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.067444812993725</v>
@@ -35266,7 +35038,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.747837142799539</v>
+        <v>1.718300206864374</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.812795415325236</v>
@@ -35355,7 +35127,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.746300294993266</v>
+        <v>1.720134240177076</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.817886980156646</v>
@@ -35444,7 +35216,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.73659123154708</v>
+        <v>1.712543201077876</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.675050199840934</v>
@@ -35533,7 +35305,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.717523805245629</v>
+        <v>1.697252532011073</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.319034755082746</v>
@@ -35622,7 +35394,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.716288134361743</v>
+        <v>1.697566040052662</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.901797822101409</v>
@@ -35711,7 +35483,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.711075447250343</v>
+        <v>1.692382247296254</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.588151996753661</v>
@@ -35800,7 +35572,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.711364982849437</v>
+        <v>1.689903804389888</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.488710097816627</v>
@@ -35889,7 +35661,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.720328989971975</v>
+        <v>1.696156629634303</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.443594190405808</v>
@@ -35978,7 +35750,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.724837796021185</v>
+        <v>1.703801099743874</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.449756949933347</v>
@@ -36067,7 +35839,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.720727614950454</v>
+        <v>1.704687880873308</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.28515919751224</v>
@@ -36156,7 +35928,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.710694098824063</v>
+        <v>1.69822325626942</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.258481612816505</v>
@@ -36245,7 +36017,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.710006241488279</v>
+        <v>1.699699841207429</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.546939405294876</v>
@@ -36334,7 +36106,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.710245255463827</v>
+        <v>1.702751144226256</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.076255008684204</v>
@@ -36423,7 +36195,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.701139742247203</v>
+        <v>1.697814187288983</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.248175818406333</v>
@@ -36512,7 +36284,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.701152663296423</v>
+        <v>1.697896452564372</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.532169331457326</v>
@@ -36601,7 +36373,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.70249071038281</v>
+        <v>1.698048924104364</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.612968989412337</v>
@@ -36690,7 +36462,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.700280988383389</v>
+        <v>1.690635519118189</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.303079875884041</v>
@@ -36779,7 +36551,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.709425646373938</v>
+        <v>1.697246707264182</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.513510144023785</v>
@@ -36868,7 +36640,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.72573005908345</v>
+        <v>1.709082117757971</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.162252888595487</v>
@@ -36957,7 +36729,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.731586558733272</v>
+        <v>1.716004423505624</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.129082068886418</v>
@@ -37046,7 +36818,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.738676261318758</v>
+        <v>1.730560519653499</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.239541547155881</v>
@@ -37135,7 +36907,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.733503195329447</v>
+        <v>1.722887476635427</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.922434670763759</v>
@@ -37224,7 +36996,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.729088019474672</v>
+        <v>1.726652449595251</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.023740486399801</v>
@@ -37313,7 +37085,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.713253996522904</v>
+        <v>1.703342649449946</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.286081602244288</v>
@@ -37402,7 +37174,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.713938257531894</v>
+        <v>1.698603574003143</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.403424420638537</v>
@@ -37491,7 +37263,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.719681338434073</v>
+        <v>1.697475872210752</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.832240557836697</v>
@@ -37580,7 +37352,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.722406497285127</v>
+        <v>1.702649080045954</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.386083323285355</v>
@@ -37669,7 +37441,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.725876972743249</v>
+        <v>1.70542319686147</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.018118477218743</v>
@@ -37758,7 +37530,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.734972317593518</v>
+        <v>1.707539752005811</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.99127266228429</v>
@@ -37847,7 +37619,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.737276613553521</v>
+        <v>1.713082364232512</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.050586451322514</v>
@@ -37936,7 +37708,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.733082080847215</v>
+        <v>1.710043659083004</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.27408612731215</v>
@@ -38025,7 +37797,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.735168519093155</v>
+        <v>1.709197377361976</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.430119475562407</v>
@@ -38114,7 +37886,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.735213687602685</v>
+        <v>1.709702476194612</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.18703108920082</v>
@@ -38203,7 +37975,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.726486709669891</v>
+        <v>1.698413123087457</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.915976496296133</v>
@@ -38292,7 +38064,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.731018370508047</v>
+        <v>1.702781657091389</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.357207485684102</v>
@@ -38381,7 +38153,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.739168504059204</v>
+        <v>1.705036663948082</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.578950221849755</v>
@@ -38470,7 +38242,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.748992869646748</v>
+        <v>1.717559200310669</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.530867696093218</v>
@@ -38559,7 +38331,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.757389596309858</v>
+        <v>1.723487500231687</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.363741244866698</v>
@@ -38648,7 +38420,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.766754798558014</v>
+        <v>1.737563594969287</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.482557583226148</v>
@@ -38737,7 +38509,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.777995142507561</v>
+        <v>1.748777617195271</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.063761909732901</v>
@@ -38826,7 +38598,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.79289506424516</v>
+        <v>1.764685920004059</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.895254210851872</v>
@@ -38915,7 +38687,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.784539812436874</v>
+        <v>1.757832105603909</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.34633323015938</v>
@@ -39004,7 +38776,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.779671815453269</v>
+        <v>1.755764022873408</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.808018497678736</v>
@@ -39093,7 +38865,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.783195835304147</v>
+        <v>1.757827157456783</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.554914910510707</v>
@@ -39182,7 +38954,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.790805482669903</v>
+        <v>1.762423723480141</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.470465832824935</v>
@@ -39271,7 +39043,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.786385678682966</v>
+        <v>1.755916816214558</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>4.331109084552392</v>
@@ -39360,7 +39132,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.788018946893106</v>
+        <v>1.762085882991032</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>4.095171545542672</v>
@@ -39449,7 +39221,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.781107845563903</v>
+        <v>1.753481397321248</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.984120216321225</v>
@@ -39538,7 +39310,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.785593332296724</v>
+        <v>1.757781373472255</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.936294994572427</v>
@@ -39627,7 +39399,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.774306158867265</v>
+        <v>1.745571557724846</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.824188514795319</v>
@@ -39716,7 +39488,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.7637841487145</v>
+        <v>1.73424308283192</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.654005441868065</v>
@@ -39805,7 +39577,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.765593117542163</v>
+        <v>1.735170713560736</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.851850899851767</v>
@@ -39894,7 +39666,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.758354386516149</v>
+        <v>1.729427056965368</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.852989435641509</v>
@@ -39983,7 +39755,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.760764073120743</v>
+        <v>1.733406146527708</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>4.094143010056637</v>
@@ -40072,7 +39844,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.75766857836046</v>
+        <v>1.732649009312591</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.464046361459702</v>
@@ -40161,7 +39933,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.74371827712202</v>
+        <v>1.721521056397918</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.725616849950978</v>
@@ -40447,7 +40219,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.488971051109879</v>
+        <v>1.495170118210298</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.830610403331531</v>
@@ -40536,7 +40308,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.479687995461369</v>
+        <v>1.490591310761152</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.807723500635041</v>
@@ -40625,7 +40397,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.487315483054277</v>
+        <v>1.493524070229003</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.818386598910896</v>
@@ -40714,7 +40486,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.477959777913653</v>
+        <v>1.481345392923583</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.840772380506168</v>
@@ -40803,7 +40575,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.466001290331059</v>
+        <v>1.474357803350838</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.86211880526186</v>
@@ -40892,7 +40664,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.470894532515632</v>
+        <v>1.478763506612701</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.836490283224615</v>
@@ -40981,7 +40753,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.461326681804195</v>
+        <v>1.465595946564247</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.834783233123447</v>
@@ -41070,7 +40842,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.463348877651031</v>
+        <v>1.467374699845406</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.82069161561225</v>
@@ -41159,7 +40931,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.466600359254376</v>
+        <v>1.46633313714208</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.852421460835895</v>
@@ -41248,7 +41020,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.469056362905544</v>
+        <v>1.46989973037996</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.845861509499086</v>
@@ -41337,7 +41109,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.492319767712034</v>
+        <v>1.480756589126031</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.305752208607215</v>
@@ -41426,7 +41198,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.499041578772974</v>
+        <v>1.485115755805935</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.362475847759103</v>
@@ -41515,7 +41287,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.487145943788574</v>
+        <v>1.476844769509754</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.470558473451358</v>
@@ -41604,7 +41376,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.472592778556441</v>
+        <v>1.470441715288739</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.45350316586786</v>
@@ -41693,7 +41465,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.493961301063045</v>
+        <v>1.490022463316069</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.46316253518154</v>
@@ -41782,7 +41554,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.500470168283098</v>
+        <v>1.489942804233606</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.453890332702338</v>
@@ -41871,7 +41643,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.509274906279279</v>
+        <v>1.500044976488266</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.459473387589781</v>
@@ -41960,7 +41732,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.493326831291071</v>
+        <v>1.488980097468205</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.502200360826444</v>
@@ -42049,7 +41821,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.522142142888272</v>
+        <v>1.517727274893935</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.543437083622614</v>
@@ -42138,7 +41910,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.557210699028173</v>
+        <v>1.550560531579452</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.676153768049367</v>
@@ -42227,7 +41999,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.544267600571898</v>
+        <v>1.542202122073396</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.564031391974874</v>
@@ -42316,7 +42088,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.5531810938588</v>
+        <v>1.550745915250113</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.688219922684032</v>
@@ -42405,7 +42177,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.537054871472842</v>
+        <v>1.532614091404773</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.625865143613927</v>
@@ -42494,7 +42266,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.536166907602166</v>
+        <v>1.534938450675006</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.453869227612545</v>
@@ -42583,7 +42355,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.541387090124158</v>
+        <v>1.539747314762323</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.738527861001915</v>
@@ -42672,7 +42444,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.523414660730611</v>
+        <v>1.518896326701826</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.485528219488735</v>
@@ -42761,7 +42533,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.536664061598879</v>
+        <v>1.532520942145298</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.619701979241374</v>
@@ -42850,7 +42622,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.539917075046464</v>
+        <v>1.532582537275754</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.554617601990713</v>
@@ -42939,7 +42711,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.546156559620728</v>
+        <v>1.532571312754746</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.747325882621427</v>
@@ -43028,7 +42800,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.528874364952824</v>
+        <v>1.518881145889882</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.569459714251132</v>
@@ -43117,7 +42889,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.521563781594423</v>
+        <v>1.517109129547745</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.511484519707708</v>
@@ -43206,7 +42978,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.520220480873093</v>
+        <v>1.508796068731554</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.500838502371669</v>
@@ -43295,7 +43067,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.526494059815589</v>
+        <v>1.517881391562534</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.708146309237632</v>
@@ -43384,7 +43156,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.52590194183283</v>
+        <v>1.520180959395023</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.731404112450535</v>
@@ -43473,7 +43245,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.522822954765898</v>
+        <v>1.515208356011665</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.698659962829984</v>
@@ -43562,7 +43334,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.520472405996795</v>
+        <v>1.509847440189316</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.69395239622965</v>
@@ -43651,7 +43423,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.528128999969165</v>
+        <v>1.517985700330683</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.567187157918011</v>
@@ -43740,7 +43512,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.548733059702255</v>
+        <v>1.53847986484177</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.615361205884537</v>
@@ -43829,7 +43601,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.548834721312329</v>
+        <v>1.536127595475466</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.622686853122289</v>
@@ -43918,7 +43690,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.550087683497897</v>
+        <v>1.536663259732651</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.668576434182101</v>
@@ -44007,7 +43779,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.569870814021416</v>
+        <v>1.554048579618717</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.80465700269246</v>
@@ -44096,7 +43868,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.551189580374571</v>
+        <v>1.538793944310227</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.807026964728389</v>
@@ -44185,7 +43957,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.567566317436651</v>
+        <v>1.550387001295629</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.521354071330193</v>
@@ -44274,7 +44046,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.59275546813497</v>
+        <v>1.574656162380476</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.508736108573306</v>
@@ -44363,7 +44135,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.600182128195829</v>
+        <v>1.588653987916548</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.850476999677017</v>
@@ -44452,7 +44224,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.596001629719036</v>
+        <v>1.576216174294393</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.900114786302418</v>
@@ -44541,7 +44313,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.613914527673503</v>
+        <v>1.600904370009893</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.790050853251225</v>
@@ -44630,7 +44402,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.610038361871115</v>
+        <v>1.59249763613036</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.599716675159356</v>
@@ -44719,7 +44491,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.610892343614126</v>
+        <v>1.585572627886381</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.781984544814865</v>
@@ -44808,7 +44580,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.609833519382237</v>
+        <v>1.584555833797553</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.666354008243191</v>
@@ -44897,7 +44669,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.600538214701692</v>
+        <v>1.579361799784822</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.694735958998353</v>
@@ -44986,7 +44758,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.615313922533309</v>
+        <v>1.592184367983886</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.631475122241207</v>
@@ -45075,7 +44847,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.618144674453067</v>
+        <v>1.592919275875703</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.614608930876383</v>
@@ -45164,7 +44936,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.629318739878091</v>
+        <v>1.598159616382398</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.678526161906394</v>
@@ -45253,7 +45025,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.622767946008461</v>
+        <v>1.595559327992529</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.665057750897534</v>
@@ -45342,7 +45114,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.61683087349281</v>
+        <v>1.591517920443739</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.618924052034848</v>
@@ -45431,7 +45203,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.616788002754671</v>
+        <v>1.590505378355707</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.624458214171447</v>
@@ -45520,7 +45292,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.622231556028233</v>
+        <v>1.598964297020673</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.521565377475424</v>
@@ -45609,7 +45381,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.613315819795465</v>
+        <v>1.592259252736789</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.616295169682956</v>
@@ -45698,7 +45470,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.605552567015259</v>
+        <v>1.585592620024462</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.687839904400016</v>
@@ -45787,7 +45559,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.625485668758015</v>
+        <v>1.602247843358451</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.549981502803928</v>
@@ -45876,7 +45648,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.610507186104332</v>
+        <v>1.589153690783678</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.591188793860026</v>
@@ -45965,7 +45737,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.615620556061348</v>
+        <v>1.594152440522066</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.550167210128835</v>
@@ -46054,7 +45826,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.606017832301261</v>
+        <v>1.591149336447734</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.736297905128323</v>
@@ -46143,7 +45915,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.603178607119351</v>
+        <v>1.590905988792974</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.568484532793966</v>
@@ -46232,7 +46004,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.614377579079961</v>
+        <v>1.59945564347934</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.929581286486329</v>
@@ -46321,7 +46093,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.587845257839175</v>
+        <v>1.580957176594982</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.872298548937871</v>
@@ -46410,7 +46182,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.588507008255347</v>
+        <v>1.586776783324421</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.020484145841006</v>
@@ -46499,7 +46271,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.602957435863789</v>
+        <v>1.600413188588912</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.937292828692391</v>
@@ -46588,7 +46360,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.606658723526936</v>
+        <v>1.604023551914605</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.83363838483251</v>
@@ -46677,7 +46449,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.606889984283552</v>
+        <v>1.603570500308734</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.913284837932763</v>
@@ -46766,7 +46538,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.602088965495559</v>
+        <v>1.59185346659855</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.059660422434986</v>
@@ -46855,7 +46627,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.583043442188749</v>
+        <v>1.574796642275662</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.790476639542562</v>
@@ -46944,7 +46716,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.593212097886959</v>
+        <v>1.58633870569202</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.90979239175482</v>
@@ -47033,7 +46805,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.606014852899905</v>
+        <v>1.598326956840516</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.072174961922858</v>
@@ -47122,7 +46894,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.587312834862896</v>
+        <v>1.58201324587717</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.696479006662931</v>
@@ -47211,7 +46983,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.596142958562458</v>
+        <v>1.589254562643017</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.025018685824076</v>
@@ -47300,7 +47072,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.574663357773073</v>
+        <v>1.576226807139645</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.92926171329285</v>
@@ -47389,7 +47161,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.587455470303299</v>
+        <v>1.59147968231101</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.787186261941874</v>
@@ -47478,7 +47250,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.595238488018338</v>
+        <v>1.595535405964145</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.602782702534574</v>
@@ -47567,7 +47339,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.576974731311459</v>
+        <v>1.578999490331152</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.652562571718518</v>
@@ -47853,7 +47625,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.491545498014883</v>
+        <v>1.493509616488052</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.861994916699843</v>
@@ -47942,7 +47714,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.486447203321087</v>
+        <v>1.492168671035231</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.841914341197575</v>
@@ -48031,7 +47803,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.503654554648504</v>
+        <v>1.504423886116646</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.826306039563907</v>
@@ -48120,7 +47892,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.500472806846482</v>
+        <v>1.502403148872319</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.850717938816254</v>
@@ -48209,7 +47981,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.49280611908193</v>
+        <v>1.496556737667132</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.946248763884211</v>
@@ -48298,7 +48070,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.501387059973752</v>
+        <v>1.505567429943005</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.854357429476892</v>
@@ -48387,7 +48159,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.493362056763497</v>
+        <v>1.49350472207048</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.836403567352098</v>
@@ -48476,7 +48248,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.503386190639218</v>
+        <v>1.506743418286247</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.850798796400492</v>
@@ -48565,7 +48337,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.504297070995216</v>
+        <v>1.50524209869687</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.896185194447249</v>
@@ -48654,7 +48426,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.505430015271592</v>
+        <v>1.504634798537346</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.874829367815436</v>
@@ -48743,7 +48515,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.560810295056193</v>
+        <v>1.55485347047398</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.515909292908276</v>
@@ -48832,7 +48604,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.573418370017896</v>
+        <v>1.569655396082896</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.649939478208773</v>
@@ -48921,7 +48693,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.557038982001143</v>
+        <v>1.553126531239538</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.490798097759467</v>
@@ -49010,7 +48782,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.552513403560993</v>
+        <v>1.550210805478322</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.471707702631896</v>
@@ -49099,7 +48871,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.576780615220186</v>
+        <v>1.571739288455102</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.483212474367023</v>
@@ -49188,7 +48960,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.570366247035661</v>
+        <v>1.561056309321731</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.48561600464277</v>
@@ -49277,7 +49049,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.577310183415049</v>
+        <v>1.567929652631168</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.568320302664539</v>
@@ -49366,7 +49138,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.559714729940228</v>
+        <v>1.554103769083601</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.562111457645559</v>
@@ -49455,7 +49227,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.584269821997973</v>
+        <v>1.574335726092519</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.528756042458477</v>
@@ -49544,7 +49316,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.613009721949191</v>
+        <v>1.600403101803544</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.519170139416787</v>
@@ -49633,7 +49405,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.614145326187776</v>
+        <v>1.600017971449976</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.533193492760022</v>
@@ -49722,7 +49494,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.63942123465716</v>
+        <v>1.622517597702402</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.683018739033475</v>
@@ -49811,7 +49583,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.631126219708482</v>
+        <v>1.61374838407365</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.570031469960317</v>
@@ -49900,7 +49672,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.648531515726176</v>
+        <v>1.626367876126254</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.705499681605543</v>
@@ -49989,7 +49761,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.648886495573469</v>
+        <v>1.628205693330463</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.649463623803254</v>
@@ -50078,7 +49850,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.61939520976946</v>
+        <v>1.600936970882351</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.437541796940284</v>
@@ -50167,7 +49939,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.632361930735125</v>
+        <v>1.609021722699741</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.685256694740806</v>
@@ -50256,7 +50028,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.653363994436905</v>
+        <v>1.62035250338851</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.506030775068932</v>
@@ -50345,7 +50117,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.65343472441293</v>
+        <v>1.62320968315661</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.550141453365569</v>
@@ -50434,7 +50206,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.649224349501259</v>
+        <v>1.626588613610117</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.515835052325483</v>
@@ -50523,7 +50295,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.645294538496985</v>
+        <v>1.627532317082933</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.583617702873281</v>
@@ -50612,7 +50384,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.642676727616955</v>
+        <v>1.620091433287947</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.43540654576188</v>
@@ -50701,7 +50473,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.663962551001915</v>
+        <v>1.640248400330606</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.50490745560508</v>
@@ -50790,7 +50562,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.660084046246439</v>
+        <v>1.643377836738689</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.557786794338998</v>
@@ -50879,7 +50651,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.668680981001954</v>
+        <v>1.648131286159672</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.661512622329838</v>
@@ -50968,7 +50740,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.648187000641191</v>
+        <v>1.627790836370968</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.550506892012434</v>
@@ -51057,7 +50829,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.654039743524696</v>
+        <v>1.632224330952058</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.66068955314281</v>
@@ -51146,7 +50918,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.66436335130075</v>
+        <v>1.641246822313477</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.553103550374323</v>
@@ -51235,7 +51007,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.647631086768239</v>
+        <v>1.627305529744815</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.613234175901746</v>
@@ -51324,7 +51096,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.65144933121853</v>
+        <v>1.630060197139331</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.540992097840055</v>
@@ -51413,7 +51185,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.688633203064969</v>
+        <v>1.658401166371143</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.724513950754782</v>
@@ -51502,7 +51274,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.666403935650045</v>
+        <v>1.641094421750566</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.852753831609046</v>
@@ -51591,7 +51363,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.66710126358279</v>
+        <v>1.638327228708939</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.511024347098076</v>
@@ -51680,7 +51452,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.685041503475027</v>
+        <v>1.656818331476116</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.780964146168181</v>
@@ -51769,7 +51541,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.68519692265081</v>
+        <v>1.649570216339521</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.863187868484613</v>
@@ -51858,7 +51630,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.69070361375868</v>
+        <v>1.649639283226246</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.892905200881201</v>
@@ -51947,7 +51719,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.701850738471496</v>
+        <v>1.66517549809687</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.904681799177937</v>
@@ -52036,7 +51808,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.694176145574837</v>
+        <v>1.659565347487583</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.762131216663826</v>
@@ -52125,7 +51897,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.664360949626203</v>
+        <v>1.623267488010725</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.03617158258396</v>
@@ -52214,7 +51986,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.648957511091258</v>
+        <v>1.613063181383576</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.048489864911626</v>
@@ -52303,7 +52075,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.628131956297611</v>
+        <v>1.596684860358226</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.050222607374981</v>
@@ -52392,7 +52164,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.631193117828054</v>
+        <v>1.600594200732874</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.049306044111742</v>
@@ -52481,7 +52253,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.632407870102543</v>
+        <v>1.599927551139235</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.040853961791656</v>
@@ -52570,7 +52342,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.649739493020959</v>
+        <v>1.610718079565687</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.008816028339055</v>
@@ -52659,7 +52431,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.642855910193442</v>
+        <v>1.610855874095078</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.035610150859905</v>
@@ -52748,7 +52520,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.641744477404038</v>
+        <v>1.608853586125307</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.065558539380099</v>
@@ -52837,7 +52609,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.643778198638702</v>
+        <v>1.609416567252663</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.03798220904832</v>
@@ -52926,7 +52698,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.649481350761347</v>
+        <v>1.619693553913646</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.054087303198472</v>
@@ -53015,7 +52787,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.624787098789126</v>
+        <v>1.59877022302558</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.033780261192465</v>
@@ -53104,7 +52876,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.612401307026793</v>
+        <v>1.58931814727432</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.047404217738147</v>
@@ -53193,7 +52965,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.622997388757171</v>
+        <v>1.600537992421116</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.044161494601788</v>
@@ -53282,7 +53054,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.619696023470374</v>
+        <v>1.596005930246273</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.044837755071758</v>
@@ -53371,7 +53143,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.624987622308154</v>
+        <v>1.600119788203532</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.104041782727881</v>
@@ -53460,7 +53232,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.642279948465428</v>
+        <v>1.620746550705681</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.402035469754217</v>
@@ -53549,7 +53321,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.659733192108095</v>
+        <v>1.636783575604084</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.338243021798536</v>
@@ -53638,7 +53410,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.684216409561372</v>
+        <v>1.662779579783764</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.767738816283608</v>
@@ -53727,7 +53499,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.652243546761271</v>
+        <v>1.635885636569481</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.554726439505306</v>
@@ -53816,7 +53588,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.645778224666285</v>
+        <v>1.629313573114447</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.686887298529034</v>
@@ -53905,7 +53677,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.644442464186751</v>
+        <v>1.626281554847786</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.681556268284835</v>
@@ -53994,7 +53766,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.650498285759547</v>
+        <v>1.625238156665831</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.633005424636047</v>
@@ -54083,7 +53855,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.651723883854668</v>
+        <v>1.628182987838187</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.658249143179189</v>
@@ -54172,7 +53944,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.651745179143389</v>
+        <v>1.628860041995598</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.763508487691557</v>
@@ -54261,7 +54033,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.629887335171294</v>
+        <v>1.607314906628878</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.454738564459083</v>
@@ -54350,7 +54122,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.648843249875449</v>
+        <v>1.622362961293826</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.6460111721148</v>
@@ -54439,7 +54211,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.655961056513368</v>
+        <v>1.628549980544582</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.932497508257588</v>
@@ -54528,7 +54300,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.626552275716151</v>
+        <v>1.608060037809041</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.598723006491272</v>
@@ -54617,7 +54389,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.625033887953667</v>
+        <v>1.60304661847122</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.66449390741561</v>
@@ -54706,7 +54478,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.59229376137544</v>
+        <v>1.577209537016892</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.64438730519093</v>
@@ -54795,7 +54567,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.60715564080736</v>
+        <v>1.591273254596285</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.682269260197913</v>
@@ -54884,7 +54656,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.607075555844202</v>
+        <v>1.587388634543274</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.435598348702722</v>
@@ -54973,7 +54745,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.588486617753768</v>
+        <v>1.567496888697365</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.573331776877055</v>
